--- a/TestXML/xmlTest2.xlsx
+++ b/TestXML/xmlTest2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="{raml20.xsd}raml" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18270" windowHeight="5700"/>
+  </bookViews>
+  <sheets>
+    <sheet name="{raml20.xsd}raml" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12203" uniqueCount="1348">
   <si>
     <t>hh</t>
   </si>
@@ -4064,33 +4065,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
-      <vertAlign val="baseline"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -4105,43 +4104,29 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal>
-        <color rgb="FF000000"/>
-      </diagonal>
-      <vertical>
-        <color rgb="FF000000"/>
-      </vertical>
-      <horizontal>
-        <color rgb="FF000000"/>
-      </horizontal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -4429,2559 +4414,2558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AFO847"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:847">
-      <c s="1" r="A1" t="s">
+    <row r="1" spans="1:847" ht="84">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c s="1" r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c s="1" r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c s="1" r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c s="1" r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="1" r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c s="1" r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c s="1" r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c s="1" r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c s="1" r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c s="1" r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c s="1" r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c s="1" r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c s="1" r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c s="1" r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c s="1" r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c s="1" r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c s="1" r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c s="1" r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c s="1" r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c s="1" r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c s="1" r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c s="1" r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c s="1" r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c s="1" r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c s="1" r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c s="1" r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c s="1" r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c s="1" r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c s="1" r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c s="1" r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c s="1" r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c s="1" r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c s="1" r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c s="1" r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c s="1" r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c s="1" r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c s="1" r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c s="1" r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c s="1" r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c s="1" r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c s="1" r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c s="1" r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c s="1" r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c s="1" r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c s="1" r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c s="1" r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c s="1" r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c s="1" r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c s="1" r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c s="1" r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c s="1" r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c s="1" r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c s="1" r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c s="1" r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c s="1" r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c s="1" r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c s="1" r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c s="1" r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c s="1" r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c s="1" r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c s="1" r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c s="1" r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c s="1" r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c s="1" r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c s="1" r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="1" r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c s="1" r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c s="1" r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c s="1" r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c s="1" r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c s="1" r="BT1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c s="1" r="BU1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c s="1" r="BV1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c s="1" r="BW1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c s="1" r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c s="1" r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c s="1" r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c s="1" r="CA1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c s="1" r="CB1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c s="1" r="CC1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c s="1" r="CD1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c s="1" r="CE1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c s="1" r="CF1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c s="1" r="CG1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c s="1" r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c s="1" r="CI1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c s="1" r="CJ1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c s="1" r="CK1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c s="1" r="CL1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c s="1" r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c s="1" r="CN1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c s="1" r="CO1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c s="1" r="CP1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c s="1" r="CQ1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c s="1" r="CR1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c s="1" r="CS1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
-      <c s="1" r="CT1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>97</v>
       </c>
-      <c s="1" r="CU1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>98</v>
       </c>
-      <c s="1" r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>99</v>
       </c>
-      <c s="1" r="CW1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>100</v>
       </c>
-      <c s="1" r="CX1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>101</v>
       </c>
-      <c s="1" r="CY1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>102</v>
       </c>
-      <c s="1" r="CZ1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c s="1" r="DA1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c s="1" r="DB1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>105</v>
       </c>
-      <c s="1" r="DC1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>106</v>
       </c>
-      <c s="1" r="DD1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>107</v>
       </c>
-      <c s="1" r="DE1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>108</v>
       </c>
-      <c s="1" r="DF1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>109</v>
       </c>
-      <c s="1" r="DG1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>110</v>
       </c>
-      <c s="1" r="DH1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>111</v>
       </c>
-      <c s="1" r="DI1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>112</v>
       </c>
-      <c s="1" r="DJ1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c s="1" r="DK1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>114</v>
       </c>
-      <c s="1" r="DL1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>115</v>
       </c>
-      <c s="1" r="DM1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>116</v>
       </c>
-      <c s="1" r="DN1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>117</v>
       </c>
-      <c s="1" r="DO1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>118</v>
       </c>
-      <c s="1" r="DP1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>119</v>
       </c>
-      <c s="1" r="DQ1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>120</v>
       </c>
-      <c s="1" r="DR1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>121</v>
       </c>
-      <c s="1" r="DS1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>122</v>
       </c>
-      <c s="1" r="DT1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>123</v>
       </c>
-      <c s="1" r="DU1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>124</v>
       </c>
-      <c s="1" r="DV1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>125</v>
       </c>
-      <c s="1" r="DW1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>126</v>
       </c>
-      <c s="1" r="DX1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>127</v>
       </c>
-      <c s="1" r="DY1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>128</v>
       </c>
-      <c s="1" r="DZ1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c s="1" r="EA1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>130</v>
       </c>
-      <c s="1" r="EB1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>131</v>
       </c>
-      <c s="1" r="EC1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>132</v>
       </c>
-      <c s="1" r="ED1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>133</v>
       </c>
-      <c s="1" r="EE1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>134</v>
       </c>
-      <c s="1" r="EF1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>135</v>
       </c>
-      <c s="1" r="EG1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c s="1" r="EH1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>137</v>
       </c>
-      <c s="1" r="EI1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>138</v>
       </c>
-      <c s="1" r="EJ1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>139</v>
       </c>
-      <c s="1" r="EK1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>140</v>
       </c>
-      <c s="1" r="EL1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>141</v>
       </c>
-      <c s="1" r="EM1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>142</v>
       </c>
-      <c s="1" r="EN1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>143</v>
       </c>
-      <c s="1" r="EO1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>144</v>
       </c>
-      <c s="1" r="EP1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>145</v>
       </c>
-      <c s="1" r="EQ1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c s="1" r="ER1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>147</v>
       </c>
-      <c s="1" r="ES1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>148</v>
       </c>
-      <c s="1" r="ET1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>149</v>
       </c>
-      <c s="1" r="EU1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>150</v>
       </c>
-      <c s="1" r="EV1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>151</v>
       </c>
-      <c s="1" r="EW1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>152</v>
       </c>
-      <c s="1" r="EX1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>153</v>
       </c>
-      <c s="1" r="EY1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>154</v>
       </c>
-      <c s="1" r="EZ1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c s="1" r="FA1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>156</v>
       </c>
-      <c s="1" r="FB1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c s="1" r="FC1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>158</v>
       </c>
-      <c s="1" r="FD1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c s="1" r="FE1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>160</v>
       </c>
-      <c s="1" r="FF1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>161</v>
       </c>
-      <c s="1" r="FG1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>162</v>
       </c>
-      <c s="1" r="FH1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>163</v>
       </c>
-      <c s="1" r="FI1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>164</v>
       </c>
-      <c s="1" r="FJ1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>165</v>
       </c>
-      <c s="1" r="FK1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>166</v>
       </c>
-      <c s="1" r="FL1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>167</v>
       </c>
-      <c s="1" r="FM1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>168</v>
       </c>
-      <c s="1" r="FN1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>169</v>
       </c>
-      <c s="1" r="FO1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>170</v>
       </c>
-      <c s="1" r="FP1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>171</v>
       </c>
-      <c s="1" r="FQ1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>172</v>
       </c>
-      <c s="1" r="FR1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>173</v>
       </c>
-      <c s="1" r="FS1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>174</v>
       </c>
-      <c s="1" r="FT1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>175</v>
       </c>
-      <c s="1" r="FU1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>176</v>
       </c>
-      <c s="1" r="FV1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>177</v>
       </c>
-      <c s="1" r="FW1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>178</v>
       </c>
-      <c s="1" r="FX1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>179</v>
       </c>
-      <c s="1" r="FY1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>180</v>
       </c>
-      <c s="1" r="FZ1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>181</v>
       </c>
-      <c s="1" r="GA1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>182</v>
       </c>
-      <c s="1" r="GB1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>183</v>
       </c>
-      <c s="1" r="GC1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>184</v>
       </c>
-      <c s="1" r="GD1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>185</v>
       </c>
-      <c s="1" r="GE1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>186</v>
       </c>
-      <c s="1" r="GF1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>187</v>
       </c>
-      <c s="1" r="GG1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>188</v>
       </c>
-      <c s="1" r="GH1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>189</v>
       </c>
-      <c s="1" r="GI1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>190</v>
       </c>
-      <c s="1" r="GJ1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>191</v>
       </c>
-      <c s="1" r="GK1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>192</v>
       </c>
-      <c s="1" r="GL1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>193</v>
       </c>
-      <c s="1" r="GM1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>194</v>
       </c>
-      <c s="1" r="GN1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>195</v>
       </c>
-      <c s="1" r="GO1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>196</v>
       </c>
-      <c s="1" r="GP1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>197</v>
       </c>
-      <c s="1" r="GQ1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c s="1" r="GR1" t="s">
+      <c r="GR1" s="1" t="s">
         <v>199</v>
       </c>
-      <c s="1" r="GS1" t="s">
+      <c r="GS1" s="1" t="s">
         <v>200</v>
       </c>
-      <c s="1" r="GT1" t="s">
+      <c r="GT1" s="1" t="s">
         <v>201</v>
       </c>
-      <c s="1" r="GU1" t="s">
+      <c r="GU1" s="1" t="s">
         <v>202</v>
       </c>
-      <c s="1" r="GV1" t="s">
+      <c r="GV1" s="1" t="s">
         <v>203</v>
       </c>
-      <c s="1" r="GW1" t="s">
+      <c r="GW1" s="1" t="s">
         <v>204</v>
       </c>
-      <c s="1" r="GX1" t="s">
+      <c r="GX1" s="1" t="s">
         <v>205</v>
       </c>
-      <c s="1" r="GY1" t="s">
+      <c r="GY1" s="1" t="s">
         <v>206</v>
       </c>
-      <c s="1" r="GZ1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>207</v>
       </c>
-      <c s="1" r="HA1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>208</v>
       </c>
-      <c s="1" r="HB1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>209</v>
       </c>
-      <c s="1" r="HC1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>210</v>
       </c>
-      <c s="1" r="HD1" t="s">
+      <c r="HD1" s="1" t="s">
         <v>211</v>
       </c>
-      <c s="1" r="HE1" t="s">
+      <c r="HE1" s="1" t="s">
         <v>212</v>
       </c>
-      <c s="1" r="HF1" t="s">
+      <c r="HF1" s="1" t="s">
         <v>213</v>
       </c>
-      <c s="1" r="HG1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>214</v>
       </c>
-      <c s="1" r="HH1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>215</v>
       </c>
-      <c s="1" r="HI1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>216</v>
       </c>
-      <c s="1" r="HJ1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>217</v>
       </c>
-      <c s="1" r="HK1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>218</v>
       </c>
-      <c s="1" r="HL1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>219</v>
       </c>
-      <c s="1" r="HM1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>220</v>
       </c>
-      <c s="1" r="HN1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>221</v>
       </c>
-      <c s="1" r="HO1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>222</v>
       </c>
-      <c s="1" r="HP1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>223</v>
       </c>
-      <c s="1" r="HQ1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c s="1" r="HR1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>225</v>
       </c>
-      <c s="1" r="HS1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>226</v>
       </c>
-      <c s="1" r="HT1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>227</v>
       </c>
-      <c s="1" r="HU1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>228</v>
       </c>
-      <c s="1" r="HV1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>229</v>
       </c>
-      <c s="1" r="HW1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>230</v>
       </c>
-      <c s="1" r="HX1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>231</v>
       </c>
-      <c s="1" r="HY1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>232</v>
       </c>
-      <c s="1" r="HZ1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>233</v>
       </c>
-      <c s="1" r="IA1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>234</v>
       </c>
-      <c s="1" r="IB1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>235</v>
       </c>
-      <c s="1" r="IC1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>236</v>
       </c>
-      <c s="1" r="ID1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>237</v>
       </c>
-      <c s="1" r="IE1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>238</v>
       </c>
-      <c s="1" r="IF1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>239</v>
       </c>
-      <c s="1" r="IG1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>240</v>
       </c>
-      <c s="1" r="IH1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>241</v>
       </c>
-      <c s="1" r="II1" t="s">
+      <c r="II1" s="1" t="s">
         <v>242</v>
       </c>
-      <c s="1" r="IJ1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>243</v>
       </c>
-      <c s="1" r="IK1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>244</v>
       </c>
-      <c s="1" r="IL1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>245</v>
       </c>
-      <c s="1" r="IM1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>246</v>
       </c>
-      <c s="1" r="IN1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>247</v>
       </c>
-      <c s="1" r="IO1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>248</v>
       </c>
-      <c s="1" r="IP1" t="s">
+      <c r="IP1" s="1" t="s">
         <v>249</v>
       </c>
-      <c s="1" r="IQ1" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>250</v>
       </c>
-      <c s="1" r="IR1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>251</v>
       </c>
-      <c s="1" r="IS1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>252</v>
       </c>
-      <c s="1" r="IT1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>253</v>
       </c>
-      <c s="1" r="IU1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>254</v>
       </c>
-      <c s="1" r="IV1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>255</v>
       </c>
-      <c s="1" r="IW1" t="s">
+      <c r="IW1" s="1" t="s">
         <v>256</v>
       </c>
-      <c s="1" r="IX1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>257</v>
       </c>
-      <c s="1" r="IY1" t="s">
+      <c r="IY1" s="1" t="s">
         <v>258</v>
       </c>
-      <c s="1" r="IZ1" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>259</v>
       </c>
-      <c s="1" r="JA1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>260</v>
       </c>
-      <c s="1" r="JB1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>261</v>
       </c>
-      <c s="1" r="JC1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>262</v>
       </c>
-      <c s="1" r="JD1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>263</v>
       </c>
-      <c s="1" r="JE1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>264</v>
       </c>
-      <c s="1" r="JF1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>265</v>
       </c>
-      <c s="1" r="JG1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>266</v>
       </c>
-      <c s="1" r="JH1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>267</v>
       </c>
-      <c s="1" r="JI1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>268</v>
       </c>
-      <c s="1" r="JJ1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>269</v>
       </c>
-      <c s="1" r="JK1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>270</v>
       </c>
-      <c s="1" r="JL1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>271</v>
       </c>
-      <c s="1" r="JM1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>272</v>
       </c>
-      <c s="1" r="JN1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>273</v>
       </c>
-      <c s="1" r="JO1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>274</v>
       </c>
-      <c s="1" r="JP1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>275</v>
       </c>
-      <c s="1" r="JQ1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c s="1" r="JR1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>277</v>
       </c>
-      <c s="1" r="JS1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>278</v>
       </c>
-      <c s="1" r="JT1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>279</v>
       </c>
-      <c s="1" r="JU1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>280</v>
       </c>
-      <c s="1" r="JV1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>281</v>
       </c>
-      <c s="1" r="JW1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>282</v>
       </c>
-      <c s="1" r="JX1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>283</v>
       </c>
-      <c s="1" r="JY1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>284</v>
       </c>
-      <c s="1" r="JZ1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>285</v>
       </c>
-      <c s="1" r="KA1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>286</v>
       </c>
-      <c s="1" r="KB1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>287</v>
       </c>
-      <c s="1" r="KC1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>288</v>
       </c>
-      <c s="1" r="KD1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>289</v>
       </c>
-      <c s="1" r="KE1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>290</v>
       </c>
-      <c s="1" r="KF1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>291</v>
       </c>
-      <c s="1" r="KG1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>292</v>
       </c>
-      <c s="1" r="KH1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>293</v>
       </c>
-      <c s="1" r="KI1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>294</v>
       </c>
-      <c s="1" r="KJ1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>295</v>
       </c>
-      <c s="1" r="KK1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>296</v>
       </c>
-      <c s="1" r="KL1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>297</v>
       </c>
-      <c s="1" r="KM1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>298</v>
       </c>
-      <c s="1" r="KN1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>299</v>
       </c>
-      <c s="1" r="KO1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>300</v>
       </c>
-      <c s="1" r="KP1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>301</v>
       </c>
-      <c s="1" r="KQ1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>302</v>
       </c>
-      <c s="1" r="KR1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>303</v>
       </c>
-      <c s="1" r="KS1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>304</v>
       </c>
-      <c s="1" r="KT1" t="s">
+      <c r="KT1" s="1" t="s">
         <v>305</v>
       </c>
-      <c s="1" r="KU1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>306</v>
       </c>
-      <c s="1" r="KV1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>307</v>
       </c>
-      <c s="1" r="KW1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>308</v>
       </c>
-      <c s="1" r="KX1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>309</v>
       </c>
-      <c s="1" r="KY1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>310</v>
       </c>
-      <c s="1" r="KZ1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>311</v>
       </c>
-      <c s="1" r="LA1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>312</v>
       </c>
-      <c s="1" r="LB1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>313</v>
       </c>
-      <c s="1" r="LC1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>314</v>
       </c>
-      <c s="1" r="LD1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>315</v>
       </c>
-      <c s="1" r="LE1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>316</v>
       </c>
-      <c s="1" r="LF1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>317</v>
       </c>
-      <c s="1" r="LG1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>318</v>
       </c>
-      <c s="1" r="LH1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>319</v>
       </c>
-      <c s="1" r="LI1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>320</v>
       </c>
-      <c s="1" r="LJ1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>321</v>
       </c>
-      <c s="1" r="LK1" t="s">
+      <c r="LK1" s="1" t="s">
         <v>322</v>
       </c>
-      <c s="1" r="LL1" t="s">
+      <c r="LL1" s="1" t="s">
         <v>323</v>
       </c>
-      <c s="1" r="LM1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>324</v>
       </c>
-      <c s="1" r="LN1" t="s">
+      <c r="LN1" s="1" t="s">
         <v>325</v>
       </c>
-      <c s="1" r="LO1" t="s">
+      <c r="LO1" s="1" t="s">
         <v>326</v>
       </c>
-      <c s="1" r="LP1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>327</v>
       </c>
-      <c s="1" r="LQ1" t="s">
+      <c r="LQ1" s="1" t="s">
         <v>328</v>
       </c>
-      <c s="1" r="LR1" t="s">
+      <c r="LR1" s="1" t="s">
         <v>329</v>
       </c>
-      <c s="1" r="LS1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>330</v>
       </c>
-      <c s="1" r="LT1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>331</v>
       </c>
-      <c s="1" r="LU1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>332</v>
       </c>
-      <c s="1" r="LV1" t="s">
+      <c r="LV1" s="1" t="s">
         <v>333</v>
       </c>
-      <c s="1" r="LW1" t="s">
+      <c r="LW1" s="1" t="s">
         <v>334</v>
       </c>
-      <c s="1" r="LX1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>335</v>
       </c>
-      <c s="1" r="LY1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>336</v>
       </c>
-      <c s="1" r="LZ1" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>337</v>
       </c>
-      <c s="1" r="MA1" t="s">
+      <c r="MA1" s="1" t="s">
         <v>338</v>
       </c>
-      <c s="1" r="MB1" t="s">
+      <c r="MB1" s="1" t="s">
         <v>339</v>
       </c>
-      <c s="1" r="MC1" t="s">
+      <c r="MC1" s="1" t="s">
         <v>340</v>
       </c>
-      <c s="1" r="MD1" t="s">
+      <c r="MD1" s="1" t="s">
         <v>341</v>
       </c>
-      <c s="1" r="ME1" t="s">
+      <c r="ME1" s="1" t="s">
         <v>342</v>
       </c>
-      <c s="1" r="MF1" t="s">
+      <c r="MF1" s="1" t="s">
         <v>343</v>
       </c>
-      <c s="1" r="MG1" t="s">
+      <c r="MG1" s="1" t="s">
         <v>344</v>
       </c>
-      <c s="1" r="MH1" t="s">
+      <c r="MH1" s="1" t="s">
         <v>345</v>
       </c>
-      <c s="1" r="MI1" t="s">
+      <c r="MI1" s="1" t="s">
         <v>346</v>
       </c>
-      <c s="1" r="MJ1" t="s">
+      <c r="MJ1" s="1" t="s">
         <v>347</v>
       </c>
-      <c s="1" r="MK1" t="s">
+      <c r="MK1" s="1" t="s">
         <v>348</v>
       </c>
-      <c s="1" r="ML1" t="s">
+      <c r="ML1" s="1" t="s">
         <v>349</v>
       </c>
-      <c s="1" r="MM1" t="s">
+      <c r="MM1" s="1" t="s">
         <v>350</v>
       </c>
-      <c s="1" r="MN1" t="s">
+      <c r="MN1" s="1" t="s">
         <v>351</v>
       </c>
-      <c s="1" r="MO1" t="s">
+      <c r="MO1" s="1" t="s">
         <v>352</v>
       </c>
-      <c s="1" r="MP1" t="s">
+      <c r="MP1" s="1" t="s">
         <v>353</v>
       </c>
-      <c s="1" r="MQ1" t="s">
+      <c r="MQ1" s="1" t="s">
         <v>354</v>
       </c>
-      <c s="1" r="MR1" t="s">
+      <c r="MR1" s="1" t="s">
         <v>355</v>
       </c>
-      <c s="1" r="MS1" t="s">
+      <c r="MS1" s="1" t="s">
         <v>356</v>
       </c>
-      <c s="1" r="MT1" t="s">
+      <c r="MT1" s="1" t="s">
         <v>357</v>
       </c>
-      <c s="1" r="MU1" t="s">
+      <c r="MU1" s="1" t="s">
         <v>358</v>
       </c>
-      <c s="1" r="MV1" t="s">
+      <c r="MV1" s="1" t="s">
         <v>359</v>
       </c>
-      <c s="1" r="MW1" t="s">
+      <c r="MW1" s="1" t="s">
         <v>360</v>
       </c>
-      <c s="1" r="MX1" t="s">
+      <c r="MX1" s="1" t="s">
         <v>361</v>
       </c>
-      <c s="1" r="MY1" t="s">
+      <c r="MY1" s="1" t="s">
         <v>362</v>
       </c>
-      <c s="1" r="MZ1" t="s">
+      <c r="MZ1" s="1" t="s">
         <v>363</v>
       </c>
-      <c s="1" r="NA1" t="s">
+      <c r="NA1" s="1" t="s">
         <v>364</v>
       </c>
-      <c s="1" r="NB1" t="s">
+      <c r="NB1" s="1" t="s">
         <v>365</v>
       </c>
-      <c s="1" r="NC1" t="s">
+      <c r="NC1" s="1" t="s">
         <v>366</v>
       </c>
-      <c s="1" r="ND1" t="s">
+      <c r="ND1" s="1" t="s">
         <v>367</v>
       </c>
-      <c s="1" r="NE1" t="s">
+      <c r="NE1" s="1" t="s">
         <v>368</v>
       </c>
-      <c s="1" r="NF1" t="s">
+      <c r="NF1" s="1" t="s">
         <v>369</v>
       </c>
-      <c s="1" r="NG1" t="s">
+      <c r="NG1" s="1" t="s">
         <v>370</v>
       </c>
-      <c s="1" r="NH1" t="s">
+      <c r="NH1" s="1" t="s">
         <v>371</v>
       </c>
-      <c s="1" r="NI1" t="s">
+      <c r="NI1" s="1" t="s">
         <v>372</v>
       </c>
-      <c s="1" r="NJ1" t="s">
+      <c r="NJ1" s="1" t="s">
         <v>373</v>
       </c>
-      <c s="1" r="NK1" t="s">
+      <c r="NK1" s="1" t="s">
         <v>374</v>
       </c>
-      <c s="1" r="NL1" t="s">
+      <c r="NL1" s="1" t="s">
         <v>375</v>
       </c>
-      <c s="1" r="NM1" t="s">
+      <c r="NM1" s="1" t="s">
         <v>376</v>
       </c>
-      <c s="1" r="NN1" t="s">
+      <c r="NN1" s="1" t="s">
         <v>377</v>
       </c>
-      <c s="1" r="NO1" t="s">
+      <c r="NO1" s="1" t="s">
         <v>378</v>
       </c>
-      <c s="1" r="NP1" t="s">
+      <c r="NP1" s="1" t="s">
         <v>379</v>
       </c>
-      <c s="1" r="NQ1" t="s">
+      <c r="NQ1" s="1" t="s">
         <v>380</v>
       </c>
-      <c s="1" r="NR1" t="s">
+      <c r="NR1" s="1" t="s">
         <v>381</v>
       </c>
-      <c s="1" r="NS1" t="s">
+      <c r="NS1" s="1" t="s">
         <v>382</v>
       </c>
-      <c s="1" r="NT1" t="s">
+      <c r="NT1" s="1" t="s">
         <v>383</v>
       </c>
-      <c s="1" r="NU1" t="s">
+      <c r="NU1" s="1" t="s">
         <v>384</v>
       </c>
-      <c s="1" r="NV1" t="s">
+      <c r="NV1" s="1" t="s">
         <v>385</v>
       </c>
-      <c s="1" r="NW1" t="s">
+      <c r="NW1" s="1" t="s">
         <v>386</v>
       </c>
-      <c s="1" r="NX1" t="s">
+      <c r="NX1" s="1" t="s">
         <v>387</v>
       </c>
-      <c s="1" r="NY1" t="s">
+      <c r="NY1" s="1" t="s">
         <v>388</v>
       </c>
-      <c s="1" r="NZ1" t="s">
+      <c r="NZ1" s="1" t="s">
         <v>389</v>
       </c>
-      <c s="1" r="OA1" t="s">
+      <c r="OA1" s="1" t="s">
         <v>390</v>
       </c>
-      <c s="1" r="OB1" t="s">
+      <c r="OB1" s="1" t="s">
         <v>391</v>
       </c>
-      <c s="1" r="OC1" t="s">
+      <c r="OC1" s="1" t="s">
         <v>392</v>
       </c>
-      <c s="1" r="OD1" t="s">
+      <c r="OD1" s="1" t="s">
         <v>393</v>
       </c>
-      <c s="1" r="OE1" t="s">
+      <c r="OE1" s="1" t="s">
         <v>394</v>
       </c>
-      <c s="1" r="OF1" t="s">
+      <c r="OF1" s="1" t="s">
         <v>395</v>
       </c>
-      <c s="1" r="OG1" t="s">
+      <c r="OG1" s="1" t="s">
         <v>396</v>
       </c>
-      <c s="1" r="OH1" t="s">
+      <c r="OH1" s="1" t="s">
         <v>397</v>
       </c>
-      <c s="1" r="OI1" t="s">
+      <c r="OI1" s="1" t="s">
         <v>398</v>
       </c>
-      <c s="1" r="OJ1" t="s">
+      <c r="OJ1" s="1" t="s">
         <v>399</v>
       </c>
-      <c s="1" r="OK1" t="s">
+      <c r="OK1" s="1" t="s">
         <v>400</v>
       </c>
-      <c s="1" r="OL1" t="s">
+      <c r="OL1" s="1" t="s">
         <v>401</v>
       </c>
-      <c s="1" r="OM1" t="s">
+      <c r="OM1" s="1" t="s">
         <v>402</v>
       </c>
-      <c s="1" r="ON1" t="s">
+      <c r="ON1" s="1" t="s">
         <v>403</v>
       </c>
-      <c s="1" r="OO1" t="s">
+      <c r="OO1" s="1" t="s">
         <v>404</v>
       </c>
-      <c s="1" r="OP1" t="s">
+      <c r="OP1" s="1" t="s">
         <v>405</v>
       </c>
-      <c s="1" r="OQ1" t="s">
+      <c r="OQ1" s="1" t="s">
         <v>406</v>
       </c>
-      <c s="1" r="OR1" t="s">
+      <c r="OR1" s="1" t="s">
         <v>407</v>
       </c>
-      <c s="1" r="OS1" t="s">
+      <c r="OS1" s="1" t="s">
         <v>408</v>
       </c>
-      <c s="1" r="OT1" t="s">
+      <c r="OT1" s="1" t="s">
         <v>409</v>
       </c>
-      <c s="1" r="OU1" t="s">
+      <c r="OU1" s="1" t="s">
         <v>410</v>
       </c>
-      <c s="1" r="OV1" t="s">
+      <c r="OV1" s="1" t="s">
         <v>411</v>
       </c>
-      <c s="1" r="OW1" t="s">
+      <c r="OW1" s="1" t="s">
         <v>412</v>
       </c>
-      <c s="1" r="OX1" t="s">
+      <c r="OX1" s="1" t="s">
         <v>413</v>
       </c>
-      <c s="1" r="OY1" t="s">
+      <c r="OY1" s="1" t="s">
         <v>414</v>
       </c>
-      <c s="1" r="OZ1" t="s">
+      <c r="OZ1" s="1" t="s">
         <v>415</v>
       </c>
-      <c s="1" r="PA1" t="s">
+      <c r="PA1" s="1" t="s">
         <v>416</v>
       </c>
-      <c s="1" r="PB1" t="s">
+      <c r="PB1" s="1" t="s">
         <v>417</v>
       </c>
-      <c s="1" r="PC1" t="s">
+      <c r="PC1" s="1" t="s">
         <v>418</v>
       </c>
-      <c s="1" r="PD1" t="s">
+      <c r="PD1" s="1" t="s">
         <v>419</v>
       </c>
-      <c s="1" r="PE1" t="s">
+      <c r="PE1" s="1" t="s">
         <v>420</v>
       </c>
-      <c s="1" r="PF1" t="s">
+      <c r="PF1" s="1" t="s">
         <v>421</v>
       </c>
-      <c s="1" r="PG1" t="s">
+      <c r="PG1" s="1" t="s">
         <v>422</v>
       </c>
-      <c s="1" r="PH1" t="s">
+      <c r="PH1" s="1" t="s">
         <v>423</v>
       </c>
-      <c s="1" r="PI1" t="s">
+      <c r="PI1" s="1" t="s">
         <v>424</v>
       </c>
-      <c s="1" r="PJ1" t="s">
+      <c r="PJ1" s="1" t="s">
         <v>425</v>
       </c>
-      <c s="1" r="PK1" t="s">
+      <c r="PK1" s="1" t="s">
         <v>426</v>
       </c>
-      <c s="1" r="PL1" t="s">
+      <c r="PL1" s="1" t="s">
         <v>427</v>
       </c>
-      <c s="1" r="PM1" t="s">
+      <c r="PM1" s="1" t="s">
         <v>428</v>
       </c>
-      <c s="1" r="PN1" t="s">
+      <c r="PN1" s="1" t="s">
         <v>429</v>
       </c>
-      <c s="1" r="PO1" t="s">
+      <c r="PO1" s="1" t="s">
         <v>430</v>
       </c>
-      <c s="1" r="PP1" t="s">
+      <c r="PP1" s="1" t="s">
         <v>431</v>
       </c>
-      <c s="1" r="PQ1" t="s">
+      <c r="PQ1" s="1" t="s">
         <v>432</v>
       </c>
-      <c s="1" r="PR1" t="s">
+      <c r="PR1" s="1" t="s">
         <v>433</v>
       </c>
-      <c s="1" r="PS1" t="s">
+      <c r="PS1" s="1" t="s">
         <v>434</v>
       </c>
-      <c s="1" r="PT1" t="s">
+      <c r="PT1" s="1" t="s">
         <v>435</v>
       </c>
-      <c s="1" r="PU1" t="s">
+      <c r="PU1" s="1" t="s">
         <v>436</v>
       </c>
-      <c s="1" r="PV1" t="s">
+      <c r="PV1" s="1" t="s">
         <v>437</v>
       </c>
-      <c s="1" r="PW1" t="s">
+      <c r="PW1" s="1" t="s">
         <v>438</v>
       </c>
-      <c s="1" r="PX1" t="s">
+      <c r="PX1" s="1" t="s">
         <v>439</v>
       </c>
-      <c s="1" r="PY1" t="s">
+      <c r="PY1" s="1" t="s">
         <v>440</v>
       </c>
-      <c s="1" r="PZ1" t="s">
+      <c r="PZ1" s="1" t="s">
         <v>441</v>
       </c>
-      <c s="1" r="QA1" t="s">
+      <c r="QA1" s="1" t="s">
         <v>442</v>
       </c>
-      <c s="1" r="QB1" t="s">
+      <c r="QB1" s="1" t="s">
         <v>443</v>
       </c>
-      <c s="1" r="QC1" t="s">
+      <c r="QC1" s="1" t="s">
         <v>444</v>
       </c>
-      <c s="1" r="QD1" t="s">
+      <c r="QD1" s="1" t="s">
         <v>445</v>
       </c>
-      <c s="1" r="QE1" t="s">
+      <c r="QE1" s="1" t="s">
         <v>446</v>
       </c>
-      <c s="1" r="QF1" t="s">
+      <c r="QF1" s="1" t="s">
         <v>447</v>
       </c>
-      <c s="1" r="QG1" t="s">
+      <c r="QG1" s="1" t="s">
         <v>448</v>
       </c>
-      <c s="1" r="QH1" t="s">
+      <c r="QH1" s="1" t="s">
         <v>449</v>
       </c>
-      <c s="1" r="QI1" t="s">
+      <c r="QI1" s="1" t="s">
         <v>450</v>
       </c>
-      <c s="1" r="QJ1" t="s">
+      <c r="QJ1" s="1" t="s">
         <v>451</v>
       </c>
-      <c s="1" r="QK1" t="s">
+      <c r="QK1" s="1" t="s">
         <v>452</v>
       </c>
-      <c s="1" r="QL1" t="s">
+      <c r="QL1" s="1" t="s">
         <v>453</v>
       </c>
-      <c s="1" r="QM1" t="s">
+      <c r="QM1" s="1" t="s">
         <v>454</v>
       </c>
-      <c s="1" r="QN1" t="s">
+      <c r="QN1" s="1" t="s">
         <v>455</v>
       </c>
-      <c s="1" r="QO1" t="s">
+      <c r="QO1" s="1" t="s">
         <v>456</v>
       </c>
-      <c s="1" r="QP1" t="s">
+      <c r="QP1" s="1" t="s">
         <v>457</v>
       </c>
-      <c s="1" r="QQ1" t="s">
+      <c r="QQ1" s="1" t="s">
         <v>458</v>
       </c>
-      <c s="1" r="QR1" t="s">
+      <c r="QR1" s="1" t="s">
         <v>459</v>
       </c>
-      <c s="1" r="QS1" t="s">
+      <c r="QS1" s="1" t="s">
         <v>460</v>
       </c>
-      <c s="1" r="QT1" t="s">
+      <c r="QT1" s="1" t="s">
         <v>461</v>
       </c>
-      <c s="1" r="QU1" t="s">
+      <c r="QU1" s="1" t="s">
         <v>462</v>
       </c>
-      <c s="1" r="QV1" t="s">
+      <c r="QV1" s="1" t="s">
         <v>463</v>
       </c>
-      <c s="1" r="QW1" t="s">
+      <c r="QW1" s="1" t="s">
         <v>464</v>
       </c>
-      <c s="1" r="QX1" t="s">
+      <c r="QX1" s="1" t="s">
         <v>465</v>
       </c>
-      <c s="1" r="QY1" t="s">
+      <c r="QY1" s="1" t="s">
         <v>466</v>
       </c>
-      <c s="1" r="QZ1" t="s">
+      <c r="QZ1" s="1" t="s">
         <v>467</v>
       </c>
-      <c s="1" r="RA1" t="s">
+      <c r="RA1" s="1" t="s">
         <v>468</v>
       </c>
-      <c s="1" r="RB1" t="s">
+      <c r="RB1" s="1" t="s">
         <v>469</v>
       </c>
-      <c s="1" r="RC1" t="s">
+      <c r="RC1" s="1" t="s">
         <v>470</v>
       </c>
-      <c s="1" r="RD1" t="s">
+      <c r="RD1" s="1" t="s">
         <v>471</v>
       </c>
-      <c s="1" r="RE1" t="s">
+      <c r="RE1" s="1" t="s">
         <v>472</v>
       </c>
-      <c s="1" r="RF1" t="s">
+      <c r="RF1" s="1" t="s">
         <v>473</v>
       </c>
-      <c s="1" r="RG1" t="s">
+      <c r="RG1" s="1" t="s">
         <v>474</v>
       </c>
-      <c s="1" r="RH1" t="s">
+      <c r="RH1" s="1" t="s">
         <v>475</v>
       </c>
-      <c s="1" r="RI1" t="s">
+      <c r="RI1" s="1" t="s">
         <v>476</v>
       </c>
-      <c s="1" r="RJ1" t="s">
+      <c r="RJ1" s="1" t="s">
         <v>477</v>
       </c>
-      <c s="1" r="RK1" t="s">
+      <c r="RK1" s="1" t="s">
         <v>478</v>
       </c>
-      <c s="1" r="RL1" t="s">
+      <c r="RL1" s="1" t="s">
         <v>479</v>
       </c>
-      <c s="1" r="RM1" t="s">
+      <c r="RM1" s="1" t="s">
         <v>480</v>
       </c>
-      <c s="1" r="RN1" t="s">
+      <c r="RN1" s="1" t="s">
         <v>481</v>
       </c>
-      <c s="1" r="RO1" t="s">
+      <c r="RO1" s="1" t="s">
         <v>482</v>
       </c>
-      <c s="1" r="RP1" t="s">
+      <c r="RP1" s="1" t="s">
         <v>483</v>
       </c>
-      <c s="1" r="RQ1" t="s">
+      <c r="RQ1" s="1" t="s">
         <v>484</v>
       </c>
-      <c s="1" r="RR1" t="s">
+      <c r="RR1" s="1" t="s">
         <v>485</v>
       </c>
-      <c s="1" r="RS1" t="s">
+      <c r="RS1" s="1" t="s">
         <v>486</v>
       </c>
-      <c s="1" r="RT1" t="s">
+      <c r="RT1" s="1" t="s">
         <v>487</v>
       </c>
-      <c s="1" r="RU1" t="s">
+      <c r="RU1" s="1" t="s">
         <v>488</v>
       </c>
-      <c s="1" r="RV1" t="s">
+      <c r="RV1" s="1" t="s">
         <v>489</v>
       </c>
-      <c s="1" r="RW1" t="s">
+      <c r="RW1" s="1" t="s">
         <v>490</v>
       </c>
-      <c s="1" r="RX1" t="s">
+      <c r="RX1" s="1" t="s">
         <v>491</v>
       </c>
-      <c s="1" r="RY1" t="s">
+      <c r="RY1" s="1" t="s">
         <v>492</v>
       </c>
-      <c s="1" r="RZ1" t="s">
+      <c r="RZ1" s="1" t="s">
         <v>493</v>
       </c>
-      <c s="1" r="SA1" t="s">
+      <c r="SA1" s="1" t="s">
         <v>494</v>
       </c>
-      <c s="1" r="SB1" t="s">
+      <c r="SB1" s="1" t="s">
         <v>495</v>
       </c>
-      <c s="1" r="SC1" t="s">
+      <c r="SC1" s="1" t="s">
         <v>496</v>
       </c>
-      <c s="1" r="SD1" t="s">
+      <c r="SD1" s="1" t="s">
         <v>497</v>
       </c>
-      <c s="1" r="SE1" t="s">
+      <c r="SE1" s="1" t="s">
         <v>498</v>
       </c>
-      <c s="1" r="SF1" t="s">
+      <c r="SF1" s="1" t="s">
         <v>499</v>
       </c>
-      <c s="1" r="SG1" t="s">
+      <c r="SG1" s="1" t="s">
         <v>500</v>
       </c>
-      <c s="1" r="SH1" t="s">
+      <c r="SH1" s="1" t="s">
         <v>501</v>
       </c>
-      <c s="1" r="SI1" t="s">
+      <c r="SI1" s="1" t="s">
         <v>502</v>
       </c>
-      <c s="1" r="SJ1" t="s">
+      <c r="SJ1" s="1" t="s">
         <v>503</v>
       </c>
-      <c s="1" r="SK1" t="s">
+      <c r="SK1" s="1" t="s">
         <v>504</v>
       </c>
-      <c s="1" r="SL1" t="s">
+      <c r="SL1" s="1" t="s">
         <v>505</v>
       </c>
-      <c s="1" r="SM1" t="s">
+      <c r="SM1" s="1" t="s">
         <v>506</v>
       </c>
-      <c s="1" r="SN1" t="s">
+      <c r="SN1" s="1" t="s">
         <v>507</v>
       </c>
-      <c s="1" r="SO1" t="s">
+      <c r="SO1" s="1" t="s">
         <v>508</v>
       </c>
-      <c s="1" r="SP1" t="s">
+      <c r="SP1" s="1" t="s">
         <v>509</v>
       </c>
-      <c s="1" r="SQ1" t="s">
+      <c r="SQ1" s="1" t="s">
         <v>510</v>
       </c>
-      <c s="1" r="SR1" t="s">
+      <c r="SR1" s="1" t="s">
         <v>511</v>
       </c>
-      <c s="1" r="SS1" t="s">
+      <c r="SS1" s="1" t="s">
         <v>512</v>
       </c>
-      <c s="1" r="ST1" t="s">
+      <c r="ST1" s="1" t="s">
         <v>513</v>
       </c>
-      <c s="1" r="SU1" t="s">
+      <c r="SU1" s="1" t="s">
         <v>514</v>
       </c>
-      <c s="1" r="SV1" t="s">
+      <c r="SV1" s="1" t="s">
         <v>515</v>
       </c>
-      <c s="1" r="SW1" t="s">
+      <c r="SW1" s="1" t="s">
         <v>516</v>
       </c>
-      <c s="1" r="SX1" t="s">
+      <c r="SX1" s="1" t="s">
         <v>517</v>
       </c>
-      <c s="1" r="SY1" t="s">
+      <c r="SY1" s="1" t="s">
         <v>518</v>
       </c>
-      <c s="1" r="SZ1" t="s">
+      <c r="SZ1" s="1" t="s">
         <v>519</v>
       </c>
-      <c s="1" r="TA1" t="s">
+      <c r="TA1" s="1" t="s">
         <v>520</v>
       </c>
-      <c s="1" r="TB1" t="s">
+      <c r="TB1" s="1" t="s">
         <v>521</v>
       </c>
-      <c s="1" r="TC1" t="s">
+      <c r="TC1" s="1" t="s">
         <v>522</v>
       </c>
-      <c s="1" r="TD1" t="s">
+      <c r="TD1" s="1" t="s">
         <v>523</v>
       </c>
-      <c s="1" r="TE1" t="s">
+      <c r="TE1" s="1" t="s">
         <v>524</v>
       </c>
-      <c s="1" r="TF1" t="s">
+      <c r="TF1" s="1" t="s">
         <v>525</v>
       </c>
-      <c s="1" r="TG1" t="s">
+      <c r="TG1" s="1" t="s">
         <v>526</v>
       </c>
-      <c s="1" r="TH1" t="s">
+      <c r="TH1" s="1" t="s">
         <v>527</v>
       </c>
-      <c s="1" r="TI1" t="s">
+      <c r="TI1" s="1" t="s">
         <v>528</v>
       </c>
-      <c s="1" r="TJ1" t="s">
+      <c r="TJ1" s="1" t="s">
         <v>529</v>
       </c>
-      <c s="1" r="TK1" t="s">
+      <c r="TK1" s="1" t="s">
         <v>530</v>
       </c>
-      <c s="1" r="TL1" t="s">
+      <c r="TL1" s="1" t="s">
         <v>531</v>
       </c>
-      <c s="1" r="TM1" t="s">
+      <c r="TM1" s="1" t="s">
         <v>532</v>
       </c>
-      <c s="1" r="TN1" t="s">
+      <c r="TN1" s="1" t="s">
         <v>533</v>
       </c>
-      <c s="1" r="TO1" t="s">
+      <c r="TO1" s="1" t="s">
         <v>534</v>
       </c>
-      <c s="1" r="TP1" t="s">
+      <c r="TP1" s="1" t="s">
         <v>535</v>
       </c>
-      <c s="1" r="TQ1" t="s">
+      <c r="TQ1" s="1" t="s">
         <v>536</v>
       </c>
-      <c s="1" r="TR1" t="s">
+      <c r="TR1" s="1" t="s">
         <v>537</v>
       </c>
-      <c s="1" r="TS1" t="s">
+      <c r="TS1" s="1" t="s">
         <v>538</v>
       </c>
-      <c s="1" r="TT1" t="s">
+      <c r="TT1" s="1" t="s">
         <v>539</v>
       </c>
-      <c s="1" r="TU1" t="s">
+      <c r="TU1" s="1" t="s">
         <v>540</v>
       </c>
-      <c s="1" r="TV1" t="s">
+      <c r="TV1" s="1" t="s">
         <v>541</v>
       </c>
-      <c s="1" r="TW1" t="s">
+      <c r="TW1" s="1" t="s">
         <v>542</v>
       </c>
-      <c s="1" r="TX1" t="s">
+      <c r="TX1" s="1" t="s">
         <v>543</v>
       </c>
-      <c s="1" r="TY1" t="s">
+      <c r="TY1" s="1" t="s">
         <v>544</v>
       </c>
-      <c s="1" r="TZ1" t="s">
+      <c r="TZ1" s="1" t="s">
         <v>545</v>
       </c>
-      <c s="1" r="UA1" t="s">
+      <c r="UA1" s="1" t="s">
         <v>546</v>
       </c>
-      <c s="1" r="UB1" t="s">
+      <c r="UB1" s="1" t="s">
         <v>547</v>
       </c>
-      <c s="1" r="UC1" t="s">
+      <c r="UC1" s="1" t="s">
         <v>548</v>
       </c>
-      <c s="1" r="UD1" t="s">
+      <c r="UD1" s="1" t="s">
         <v>549</v>
       </c>
-      <c s="1" r="UE1" t="s">
+      <c r="UE1" s="1" t="s">
         <v>550</v>
       </c>
-      <c s="1" r="UF1" t="s">
+      <c r="UF1" s="1" t="s">
         <v>551</v>
       </c>
-      <c s="1" r="UG1" t="s">
+      <c r="UG1" s="1" t="s">
         <v>552</v>
       </c>
-      <c s="1" r="UH1" t="s">
+      <c r="UH1" s="1" t="s">
         <v>553</v>
       </c>
-      <c s="1" r="UI1" t="s">
+      <c r="UI1" s="1" t="s">
         <v>554</v>
       </c>
-      <c s="1" r="UJ1" t="s">
+      <c r="UJ1" s="1" t="s">
         <v>555</v>
       </c>
-      <c s="1" r="UK1" t="s">
+      <c r="UK1" s="1" t="s">
         <v>556</v>
       </c>
-      <c s="1" r="UL1" t="s">
+      <c r="UL1" s="1" t="s">
         <v>557</v>
       </c>
-      <c s="1" r="UM1" t="s">
+      <c r="UM1" s="1" t="s">
         <v>558</v>
       </c>
-      <c s="1" r="UN1" t="s">
+      <c r="UN1" s="1" t="s">
         <v>559</v>
       </c>
-      <c s="1" r="UO1" t="s">
+      <c r="UO1" s="1" t="s">
         <v>560</v>
       </c>
-      <c s="1" r="UP1" t="s">
+      <c r="UP1" s="1" t="s">
         <v>561</v>
       </c>
-      <c s="1" r="UQ1" t="s">
+      <c r="UQ1" s="1" t="s">
         <v>562</v>
       </c>
-      <c s="1" r="UR1" t="s">
+      <c r="UR1" s="1" t="s">
         <v>563</v>
       </c>
-      <c s="1" r="US1" t="s">
+      <c r="US1" s="1" t="s">
         <v>564</v>
       </c>
-      <c s="1" r="UT1" t="s">
+      <c r="UT1" s="1" t="s">
         <v>565</v>
       </c>
-      <c s="1" r="UU1" t="s">
+      <c r="UU1" s="1" t="s">
         <v>566</v>
       </c>
-      <c s="1" r="UV1" t="s">
+      <c r="UV1" s="1" t="s">
         <v>567</v>
       </c>
-      <c s="1" r="UW1" t="s">
+      <c r="UW1" s="1" t="s">
         <v>568</v>
       </c>
-      <c s="1" r="UX1" t="s">
+      <c r="UX1" s="1" t="s">
         <v>569</v>
       </c>
-      <c s="1" r="UY1" t="s">
+      <c r="UY1" s="1" t="s">
         <v>570</v>
       </c>
-      <c s="1" r="UZ1" t="s">
+      <c r="UZ1" s="1" t="s">
         <v>571</v>
       </c>
-      <c s="1" r="VA1" t="s">
+      <c r="VA1" s="1" t="s">
         <v>572</v>
       </c>
-      <c s="1" r="VB1" t="s">
+      <c r="VB1" s="1" t="s">
         <v>573</v>
       </c>
-      <c s="1" r="VC1" t="s">
+      <c r="VC1" s="1" t="s">
         <v>574</v>
       </c>
-      <c s="1" r="VD1" t="s">
+      <c r="VD1" s="1" t="s">
         <v>575</v>
       </c>
-      <c s="1" r="VE1" t="s">
+      <c r="VE1" s="1" t="s">
         <v>576</v>
       </c>
-      <c s="1" r="VF1" t="s">
+      <c r="VF1" s="1" t="s">
         <v>577</v>
       </c>
-      <c s="1" r="VG1" t="s">
+      <c r="VG1" s="1" t="s">
         <v>578</v>
       </c>
-      <c s="1" r="VH1" t="s">
+      <c r="VH1" s="1" t="s">
         <v>579</v>
       </c>
-      <c s="1" r="VI1" t="s">
+      <c r="VI1" s="1" t="s">
         <v>580</v>
       </c>
-      <c s="1" r="VJ1" t="s">
+      <c r="VJ1" s="1" t="s">
         <v>581</v>
       </c>
-      <c s="1" r="VK1" t="s">
+      <c r="VK1" s="1" t="s">
         <v>582</v>
       </c>
-      <c s="1" r="VL1" t="s">
+      <c r="VL1" s="1" t="s">
         <v>583</v>
       </c>
-      <c s="1" r="VM1" t="s">
+      <c r="VM1" s="1" t="s">
         <v>584</v>
       </c>
-      <c s="1" r="VN1" t="s">
+      <c r="VN1" s="1" t="s">
         <v>585</v>
       </c>
-      <c s="1" r="VO1" t="s">
+      <c r="VO1" s="1" t="s">
         <v>586</v>
       </c>
-      <c s="1" r="VP1" t="s">
+      <c r="VP1" s="1" t="s">
         <v>587</v>
       </c>
-      <c s="1" r="VQ1" t="s">
+      <c r="VQ1" s="1" t="s">
         <v>588</v>
       </c>
-      <c s="1" r="VR1" t="s">
+      <c r="VR1" s="1" t="s">
         <v>589</v>
       </c>
-      <c s="1" r="VS1" t="s">
+      <c r="VS1" s="1" t="s">
         <v>590</v>
       </c>
-      <c s="1" r="VT1" t="s">
+      <c r="VT1" s="1" t="s">
         <v>591</v>
       </c>
-      <c s="1" r="VU1" t="s">
+      <c r="VU1" s="1" t="s">
         <v>592</v>
       </c>
-      <c s="1" r="VV1" t="s">
+      <c r="VV1" s="1" t="s">
         <v>593</v>
       </c>
-      <c s="1" r="VW1" t="s">
+      <c r="VW1" s="1" t="s">
         <v>594</v>
       </c>
-      <c s="1" r="VX1" t="s">
+      <c r="VX1" s="1" t="s">
         <v>595</v>
       </c>
-      <c s="1" r="VY1" t="s">
+      <c r="VY1" s="1" t="s">
         <v>596</v>
       </c>
-      <c s="1" r="VZ1" t="s">
+      <c r="VZ1" s="1" t="s">
         <v>597</v>
       </c>
-      <c s="1" r="WA1" t="s">
+      <c r="WA1" s="1" t="s">
         <v>598</v>
       </c>
-      <c s="1" r="WB1" t="s">
+      <c r="WB1" s="1" t="s">
         <v>599</v>
       </c>
-      <c s="1" r="WC1" t="s">
+      <c r="WC1" s="1" t="s">
         <v>600</v>
       </c>
-      <c s="1" r="WD1" t="s">
+      <c r="WD1" s="1" t="s">
         <v>601</v>
       </c>
-      <c s="1" r="WE1" t="s">
+      <c r="WE1" s="1" t="s">
         <v>602</v>
       </c>
-      <c s="1" r="WF1" t="s">
+      <c r="WF1" s="1" t="s">
         <v>603</v>
       </c>
-      <c s="1" r="WG1" t="s">
+      <c r="WG1" s="1" t="s">
         <v>604</v>
       </c>
-      <c s="1" r="WH1" t="s">
+      <c r="WH1" s="1" t="s">
         <v>605</v>
       </c>
-      <c s="1" r="WI1" t="s">
+      <c r="WI1" s="1" t="s">
         <v>606</v>
       </c>
-      <c s="1" r="WJ1" t="s">
+      <c r="WJ1" s="1" t="s">
         <v>607</v>
       </c>
-      <c s="1" r="WK1" t="s">
+      <c r="WK1" s="1" t="s">
         <v>608</v>
       </c>
-      <c s="1" r="WL1" t="s">
+      <c r="WL1" s="1" t="s">
         <v>609</v>
       </c>
-      <c s="1" r="WM1" t="s">
+      <c r="WM1" s="1" t="s">
         <v>610</v>
       </c>
-      <c s="1" r="WN1" t="s">
+      <c r="WN1" s="1" t="s">
         <v>611</v>
       </c>
-      <c s="1" r="WO1" t="s">
+      <c r="WO1" s="1" t="s">
         <v>612</v>
       </c>
-      <c s="1" r="WP1" t="s">
+      <c r="WP1" s="1" t="s">
         <v>613</v>
       </c>
-      <c s="1" r="WQ1" t="s">
+      <c r="WQ1" s="1" t="s">
         <v>614</v>
       </c>
-      <c s="1" r="WR1" t="s">
+      <c r="WR1" s="1" t="s">
         <v>615</v>
       </c>
-      <c s="1" r="WS1" t="s">
+      <c r="WS1" s="1" t="s">
         <v>616</v>
       </c>
-      <c s="1" r="WT1" t="s">
+      <c r="WT1" s="1" t="s">
         <v>617</v>
       </c>
-      <c s="1" r="WU1" t="s">
+      <c r="WU1" s="1" t="s">
         <v>618</v>
       </c>
-      <c s="1" r="WV1" t="s">
+      <c r="WV1" s="1" t="s">
         <v>619</v>
       </c>
-      <c s="1" r="WW1" t="s">
+      <c r="WW1" s="1" t="s">
         <v>620</v>
       </c>
-      <c s="1" r="WX1" t="s">
+      <c r="WX1" s="1" t="s">
         <v>621</v>
       </c>
-      <c s="1" r="WY1" t="s">
+      <c r="WY1" s="1" t="s">
         <v>622</v>
       </c>
-      <c s="1" r="WZ1" t="s">
+      <c r="WZ1" s="1" t="s">
         <v>623</v>
       </c>
-      <c s="1" r="XA1" t="s">
+      <c r="XA1" s="1" t="s">
         <v>624</v>
       </c>
-      <c s="1" r="XB1" t="s">
+      <c r="XB1" s="1" t="s">
         <v>625</v>
       </c>
-      <c s="1" r="XC1" t="s">
+      <c r="XC1" s="1" t="s">
         <v>626</v>
       </c>
-      <c s="1" r="XD1" t="s">
+      <c r="XD1" s="1" t="s">
         <v>627</v>
       </c>
-      <c s="1" r="XE1" t="s">
+      <c r="XE1" s="1" t="s">
         <v>628</v>
       </c>
-      <c s="1" r="XF1" t="s">
+      <c r="XF1" s="1" t="s">
         <v>629</v>
       </c>
-      <c s="1" r="XG1" t="s">
+      <c r="XG1" s="1" t="s">
         <v>630</v>
       </c>
-      <c s="1" r="XH1" t="s">
+      <c r="XH1" s="1" t="s">
         <v>631</v>
       </c>
-      <c s="1" r="XI1" t="s">
+      <c r="XI1" s="1" t="s">
         <v>632</v>
       </c>
-      <c s="1" r="XJ1" t="s">
+      <c r="XJ1" s="1" t="s">
         <v>633</v>
       </c>
-      <c s="1" r="XK1" t="s">
+      <c r="XK1" s="1" t="s">
         <v>634</v>
       </c>
-      <c s="1" r="XL1" t="s">
+      <c r="XL1" s="1" t="s">
         <v>635</v>
       </c>
-      <c s="1" r="XM1" t="s">
+      <c r="XM1" s="1" t="s">
         <v>636</v>
       </c>
-      <c s="1" r="XN1" t="s">
+      <c r="XN1" s="1" t="s">
         <v>637</v>
       </c>
-      <c s="1" r="XO1" t="s">
+      <c r="XO1" s="1" t="s">
         <v>638</v>
       </c>
-      <c s="1" r="XP1" t="s">
+      <c r="XP1" s="1" t="s">
         <v>639</v>
       </c>
-      <c s="1" r="XQ1" t="s">
+      <c r="XQ1" s="1" t="s">
         <v>640</v>
       </c>
-      <c s="1" r="XR1" t="s">
+      <c r="XR1" s="1" t="s">
         <v>641</v>
       </c>
-      <c s="1" r="XS1" t="s">
+      <c r="XS1" s="1" t="s">
         <v>642</v>
       </c>
-      <c s="1" r="XT1" t="s">
+      <c r="XT1" s="1" t="s">
         <v>643</v>
       </c>
-      <c s="1" r="XU1" t="s">
+      <c r="XU1" s="1" t="s">
         <v>644</v>
       </c>
-      <c s="1" r="XV1" t="s">
+      <c r="XV1" s="1" t="s">
         <v>645</v>
       </c>
-      <c s="1" r="XW1" t="s">
+      <c r="XW1" s="1" t="s">
         <v>646</v>
       </c>
-      <c s="1" r="XX1" t="s">
+      <c r="XX1" s="1" t="s">
         <v>647</v>
       </c>
-      <c s="1" r="XY1" t="s">
+      <c r="XY1" s="1" t="s">
         <v>648</v>
       </c>
-      <c s="1" r="XZ1" t="s">
+      <c r="XZ1" s="1" t="s">
         <v>649</v>
       </c>
-      <c s="1" r="YA1" t="s">
+      <c r="YA1" s="1" t="s">
         <v>650</v>
       </c>
-      <c s="1" r="YB1" t="s">
+      <c r="YB1" s="1" t="s">
         <v>651</v>
       </c>
-      <c s="1" r="YC1" t="s">
+      <c r="YC1" s="1" t="s">
         <v>652</v>
       </c>
-      <c s="1" r="YD1" t="s">
+      <c r="YD1" s="1" t="s">
         <v>653</v>
       </c>
-      <c s="1" r="YE1" t="s">
+      <c r="YE1" s="1" t="s">
         <v>654</v>
       </c>
-      <c s="1" r="YF1" t="s">
+      <c r="YF1" s="1" t="s">
         <v>655</v>
       </c>
-      <c s="1" r="YG1" t="s">
+      <c r="YG1" s="1" t="s">
         <v>656</v>
       </c>
-      <c s="1" r="YH1" t="s">
+      <c r="YH1" s="1" t="s">
         <v>657</v>
       </c>
-      <c s="1" r="YI1" t="s">
+      <c r="YI1" s="1" t="s">
         <v>658</v>
       </c>
-      <c s="1" r="YJ1" t="s">
+      <c r="YJ1" s="1" t="s">
         <v>659</v>
       </c>
-      <c s="1" r="YK1" t="s">
+      <c r="YK1" s="1" t="s">
         <v>660</v>
       </c>
-      <c s="1" r="YL1" t="s">
+      <c r="YL1" s="1" t="s">
         <v>661</v>
       </c>
-      <c s="1" r="YM1" t="s">
+      <c r="YM1" s="1" t="s">
         <v>662</v>
       </c>
-      <c s="1" r="YN1" t="s">
+      <c r="YN1" s="1" t="s">
         <v>663</v>
       </c>
-      <c s="1" r="YO1" t="s">
+      <c r="YO1" s="1" t="s">
         <v>664</v>
       </c>
-      <c s="1" r="YP1" t="s">
+      <c r="YP1" s="1" t="s">
         <v>665</v>
       </c>
-      <c s="1" r="YQ1" t="s">
+      <c r="YQ1" s="1" t="s">
         <v>666</v>
       </c>
-      <c s="1" r="YR1" t="s">
+      <c r="YR1" s="1" t="s">
         <v>667</v>
       </c>
-      <c s="1" r="YS1" t="s">
+      <c r="YS1" s="1" t="s">
         <v>668</v>
       </c>
-      <c s="1" r="YT1" t="s">
+      <c r="YT1" s="1" t="s">
         <v>669</v>
       </c>
-      <c s="1" r="YU1" t="s">
+      <c r="YU1" s="1" t="s">
         <v>670</v>
       </c>
-      <c s="1" r="YV1" t="s">
+      <c r="YV1" s="1" t="s">
         <v>671</v>
       </c>
-      <c s="1" r="YW1" t="s">
+      <c r="YW1" s="1" t="s">
         <v>672</v>
       </c>
-      <c s="1" r="YX1" t="s">
+      <c r="YX1" s="1" t="s">
         <v>673</v>
       </c>
-      <c s="1" r="YY1" t="s">
+      <c r="YY1" s="1" t="s">
         <v>674</v>
       </c>
-      <c s="1" r="YZ1" t="s">
+      <c r="YZ1" s="1" t="s">
         <v>675</v>
       </c>
-      <c s="1" r="ZA1" t="s">
+      <c r="ZA1" s="1" t="s">
         <v>676</v>
       </c>
-      <c s="1" r="ZB1" t="s">
+      <c r="ZB1" s="1" t="s">
         <v>677</v>
       </c>
-      <c s="1" r="ZC1" t="s">
+      <c r="ZC1" s="1" t="s">
         <v>678</v>
       </c>
-      <c s="1" r="ZD1" t="s">
+      <c r="ZD1" s="1" t="s">
         <v>679</v>
       </c>
-      <c s="1" r="ZE1" t="s">
+      <c r="ZE1" s="1" t="s">
         <v>680</v>
       </c>
-      <c s="1" r="ZF1" t="s">
+      <c r="ZF1" s="1" t="s">
         <v>681</v>
       </c>
-      <c s="1" r="ZG1" t="s">
+      <c r="ZG1" s="1" t="s">
         <v>682</v>
       </c>
-      <c s="1" r="ZH1" t="s">
+      <c r="ZH1" s="1" t="s">
         <v>683</v>
       </c>
-      <c s="1" r="ZI1" t="s">
+      <c r="ZI1" s="1" t="s">
         <v>684</v>
       </c>
-      <c s="1" r="ZJ1" t="s">
+      <c r="ZJ1" s="1" t="s">
         <v>685</v>
       </c>
-      <c s="1" r="ZK1" t="s">
+      <c r="ZK1" s="1" t="s">
         <v>686</v>
       </c>
-      <c s="1" r="ZL1" t="s">
+      <c r="ZL1" s="1" t="s">
         <v>687</v>
       </c>
-      <c s="1" r="ZM1" t="s">
+      <c r="ZM1" s="1" t="s">
         <v>688</v>
       </c>
-      <c s="1" r="ZN1" t="s">
+      <c r="ZN1" s="1" t="s">
         <v>689</v>
       </c>
-      <c s="1" r="ZO1" t="s">
+      <c r="ZO1" s="1" t="s">
         <v>690</v>
       </c>
-      <c s="1" r="ZP1" t="s">
+      <c r="ZP1" s="1" t="s">
         <v>691</v>
       </c>
-      <c s="1" r="ZQ1" t="s">
+      <c r="ZQ1" s="1" t="s">
         <v>692</v>
       </c>
-      <c s="1" r="ZR1" t="s">
+      <c r="ZR1" s="1" t="s">
         <v>693</v>
       </c>
-      <c s="1" r="ZS1" t="s">
+      <c r="ZS1" s="1" t="s">
         <v>694</v>
       </c>
-      <c s="1" r="ZT1" t="s">
+      <c r="ZT1" s="1" t="s">
         <v>695</v>
       </c>
-      <c s="1" r="ZU1" t="s">
+      <c r="ZU1" s="1" t="s">
         <v>696</v>
       </c>
-      <c s="1" r="ZV1" t="s">
+      <c r="ZV1" s="1" t="s">
         <v>697</v>
       </c>
-      <c s="1" r="ZW1" t="s">
+      <c r="ZW1" s="1" t="s">
         <v>698</v>
       </c>
-      <c s="1" r="ZX1" t="s">
+      <c r="ZX1" s="1" t="s">
         <v>699</v>
       </c>
-      <c s="1" r="ZY1" t="s">
+      <c r="ZY1" s="1" t="s">
         <v>700</v>
       </c>
-      <c s="1" r="ZZ1" t="s">
+      <c r="ZZ1" s="1" t="s">
         <v>701</v>
       </c>
-      <c s="1" r="AAA1" t="s">
+      <c r="AAA1" s="1" t="s">
         <v>702</v>
       </c>
-      <c s="1" r="AAB1" t="s">
+      <c r="AAB1" s="1" t="s">
         <v>703</v>
       </c>
-      <c s="1" r="AAC1" t="s">
+      <c r="AAC1" s="1" t="s">
         <v>704</v>
       </c>
-      <c s="1" r="AAD1" t="s">
+      <c r="AAD1" s="1" t="s">
         <v>705</v>
       </c>
-      <c s="1" r="AAE1" t="s">
+      <c r="AAE1" s="1" t="s">
         <v>706</v>
       </c>
-      <c s="1" r="AAF1" t="s">
+      <c r="AAF1" s="1" t="s">
         <v>707</v>
       </c>
-      <c s="1" r="AAG1" t="s">
+      <c r="AAG1" s="1" t="s">
         <v>708</v>
       </c>
-      <c s="1" r="AAH1" t="s">
+      <c r="AAH1" s="1" t="s">
         <v>709</v>
       </c>
-      <c s="1" r="AAI1" t="s">
+      <c r="AAI1" s="1" t="s">
         <v>710</v>
       </c>
-      <c s="1" r="AAJ1" t="s">
+      <c r="AAJ1" s="1" t="s">
         <v>711</v>
       </c>
-      <c s="1" r="AAK1" t="s">
+      <c r="AAK1" s="1" t="s">
         <v>712</v>
       </c>
-      <c s="1" r="AAL1" t="s">
+      <c r="AAL1" s="1" t="s">
         <v>713</v>
       </c>
-      <c s="1" r="AAM1" t="s">
+      <c r="AAM1" s="1" t="s">
         <v>714</v>
       </c>
-      <c s="1" r="AAN1" t="s">
+      <c r="AAN1" s="1" t="s">
         <v>715</v>
       </c>
-      <c s="1" r="AAO1" t="s">
+      <c r="AAO1" s="1" t="s">
         <v>716</v>
       </c>
-      <c s="1" r="AAP1" t="s">
+      <c r="AAP1" s="1" t="s">
         <v>717</v>
       </c>
-      <c s="1" r="AAQ1" t="s">
+      <c r="AAQ1" s="1" t="s">
         <v>718</v>
       </c>
-      <c s="1" r="AAR1" t="s">
+      <c r="AAR1" s="1" t="s">
         <v>719</v>
       </c>
-      <c s="1" r="AAS1" t="s">
+      <c r="AAS1" s="1" t="s">
         <v>720</v>
       </c>
-      <c s="1" r="AAT1" t="s">
+      <c r="AAT1" s="1" t="s">
         <v>721</v>
       </c>
-      <c s="1" r="AAU1" t="s">
+      <c r="AAU1" s="1" t="s">
         <v>722</v>
       </c>
-      <c s="1" r="AAV1" t="s">
+      <c r="AAV1" s="1" t="s">
         <v>723</v>
       </c>
-      <c s="1" r="AAW1" t="s">
+      <c r="AAW1" s="1" t="s">
         <v>724</v>
       </c>
-      <c s="1" r="AAX1" t="s">
+      <c r="AAX1" s="1" t="s">
         <v>725</v>
       </c>
-      <c s="1" r="AAY1" t="s">
+      <c r="AAY1" s="1" t="s">
         <v>726</v>
       </c>
-      <c s="1" r="AAZ1" t="s">
+      <c r="AAZ1" s="1" t="s">
         <v>727</v>
       </c>
-      <c s="1" r="ABA1" t="s">
+      <c r="ABA1" s="1" t="s">
         <v>728</v>
       </c>
-      <c s="1" r="ABB1" t="s">
+      <c r="ABB1" s="1" t="s">
         <v>729</v>
       </c>
-      <c s="1" r="ABC1" t="s">
+      <c r="ABC1" s="1" t="s">
         <v>730</v>
       </c>
-      <c s="1" r="ABD1" t="s">
+      <c r="ABD1" s="1" t="s">
         <v>731</v>
       </c>
-      <c s="1" r="ABE1" t="s">
+      <c r="ABE1" s="1" t="s">
         <v>732</v>
       </c>
-      <c s="1" r="ABF1" t="s">
+      <c r="ABF1" s="1" t="s">
         <v>733</v>
       </c>
-      <c s="1" r="ABG1" t="s">
+      <c r="ABG1" s="1" t="s">
         <v>734</v>
       </c>
-      <c s="1" r="ABH1" t="s">
+      <c r="ABH1" s="1" t="s">
         <v>735</v>
       </c>
-      <c s="1" r="ABI1" t="s">
+      <c r="ABI1" s="1" t="s">
         <v>736</v>
       </c>
-      <c s="1" r="ABJ1" t="s">
+      <c r="ABJ1" s="1" t="s">
         <v>737</v>
       </c>
-      <c s="1" r="ABK1" t="s">
+      <c r="ABK1" s="1" t="s">
         <v>738</v>
       </c>
-      <c s="1" r="ABL1" t="s">
+      <c r="ABL1" s="1" t="s">
         <v>739</v>
       </c>
-      <c s="1" r="ABM1" t="s">
+      <c r="ABM1" s="1" t="s">
         <v>740</v>
       </c>
-      <c s="1" r="ABN1" t="s">
+      <c r="ABN1" s="1" t="s">
         <v>741</v>
       </c>
-      <c s="1" r="ABO1" t="s">
+      <c r="ABO1" s="1" t="s">
         <v>742</v>
       </c>
-      <c s="1" r="ABP1" t="s">
+      <c r="ABP1" s="1" t="s">
         <v>743</v>
       </c>
-      <c s="1" r="ABQ1" t="s">
+      <c r="ABQ1" s="1" t="s">
         <v>744</v>
       </c>
-      <c s="1" r="ABR1" t="s">
+      <c r="ABR1" s="1" t="s">
         <v>745</v>
       </c>
-      <c s="1" r="ABS1" t="s">
+      <c r="ABS1" s="1" t="s">
         <v>746</v>
       </c>
-      <c s="1" r="ABT1" t="s">
+      <c r="ABT1" s="1" t="s">
         <v>747</v>
       </c>
-      <c s="1" r="ABU1" t="s">
+      <c r="ABU1" s="1" t="s">
         <v>748</v>
       </c>
-      <c s="1" r="ABV1" t="s">
+      <c r="ABV1" s="1" t="s">
         <v>749</v>
       </c>
-      <c s="1" r="ABW1" t="s">
+      <c r="ABW1" s="1" t="s">
         <v>750</v>
       </c>
-      <c s="1" r="ABX1" t="s">
+      <c r="ABX1" s="1" t="s">
         <v>751</v>
       </c>
-      <c s="1" r="ABY1" t="s">
+      <c r="ABY1" s="1" t="s">
         <v>752</v>
       </c>
-      <c s="1" r="ABZ1" t="s">
+      <c r="ABZ1" s="1" t="s">
         <v>753</v>
       </c>
-      <c s="1" r="ACA1" t="s">
+      <c r="ACA1" s="1" t="s">
         <v>754</v>
       </c>
-      <c s="1" r="ACB1" t="s">
+      <c r="ACB1" s="1" t="s">
         <v>755</v>
       </c>
-      <c s="1" r="ACC1" t="s">
+      <c r="ACC1" s="1" t="s">
         <v>756</v>
       </c>
-      <c s="1" r="ACD1" t="s">
+      <c r="ACD1" s="1" t="s">
         <v>757</v>
       </c>
-      <c s="1" r="ACE1" t="s">
+      <c r="ACE1" s="1" t="s">
         <v>758</v>
       </c>
-      <c s="1" r="ACF1" t="s">
+      <c r="ACF1" s="1" t="s">
         <v>759</v>
       </c>
-      <c s="1" r="ACG1" t="s">
+      <c r="ACG1" s="1" t="s">
         <v>760</v>
       </c>
-      <c s="1" r="ACH1" t="s">
+      <c r="ACH1" s="1" t="s">
         <v>761</v>
       </c>
-      <c s="1" r="ACI1" t="s">
+      <c r="ACI1" s="1" t="s">
         <v>762</v>
       </c>
-      <c s="1" r="ACJ1" t="s">
+      <c r="ACJ1" s="1" t="s">
         <v>763</v>
       </c>
-      <c s="1" r="ACK1" t="s">
+      <c r="ACK1" s="1" t="s">
         <v>764</v>
       </c>
-      <c s="1" r="ACL1" t="s">
+      <c r="ACL1" s="1" t="s">
         <v>765</v>
       </c>
-      <c s="1" r="ACM1" t="s">
+      <c r="ACM1" s="1" t="s">
         <v>766</v>
       </c>
-      <c s="1" r="ACN1" t="s">
+      <c r="ACN1" s="1" t="s">
         <v>767</v>
       </c>
-      <c s="1" r="ACO1" t="s">
+      <c r="ACO1" s="1" t="s">
         <v>768</v>
       </c>
-      <c s="1" r="ACP1" t="s">
+      <c r="ACP1" s="1" t="s">
         <v>769</v>
       </c>
-      <c s="1" r="ACQ1" t="s">
+      <c r="ACQ1" s="1" t="s">
         <v>770</v>
       </c>
-      <c s="1" r="ACR1" t="s">
+      <c r="ACR1" s="1" t="s">
         <v>771</v>
       </c>
-      <c s="1" r="ACS1" t="s">
+      <c r="ACS1" s="1" t="s">
         <v>772</v>
       </c>
-      <c s="1" r="ACT1" t="s">
+      <c r="ACT1" s="1" t="s">
         <v>773</v>
       </c>
-      <c s="1" r="ACU1" t="s">
+      <c r="ACU1" s="1" t="s">
         <v>774</v>
       </c>
-      <c s="1" r="ACV1" t="s">
+      <c r="ACV1" s="1" t="s">
         <v>775</v>
       </c>
-      <c s="1" r="ACW1" t="s">
+      <c r="ACW1" s="1" t="s">
         <v>776</v>
       </c>
-      <c s="1" r="ACX1" t="s">
+      <c r="ACX1" s="1" t="s">
         <v>777</v>
       </c>
-      <c s="1" r="ACY1" t="s">
+      <c r="ACY1" s="1" t="s">
         <v>778</v>
       </c>
-      <c s="1" r="ACZ1" t="s">
+      <c r="ACZ1" s="1" t="s">
         <v>779</v>
       </c>
-      <c s="1" r="ADA1" t="s">
+      <c r="ADA1" s="1" t="s">
         <v>780</v>
       </c>
-      <c s="1" r="ADB1" t="s">
+      <c r="ADB1" s="1" t="s">
         <v>781</v>
       </c>
-      <c s="1" r="ADC1" t="s">
+      <c r="ADC1" s="1" t="s">
         <v>782</v>
       </c>
-      <c s="1" r="ADD1" t="s">
+      <c r="ADD1" s="1" t="s">
         <v>783</v>
       </c>
-      <c s="1" r="ADE1" t="s">
+      <c r="ADE1" s="1" t="s">
         <v>784</v>
       </c>
-      <c s="1" r="ADF1" t="s">
+      <c r="ADF1" s="1" t="s">
         <v>785</v>
       </c>
-      <c s="1" r="ADG1" t="s">
+      <c r="ADG1" s="1" t="s">
         <v>786</v>
       </c>
-      <c s="1" r="ADH1" t="s">
+      <c r="ADH1" s="1" t="s">
         <v>787</v>
       </c>
-      <c s="1" r="ADI1" t="s">
+      <c r="ADI1" s="1" t="s">
         <v>788</v>
       </c>
-      <c s="1" r="ADJ1" t="s">
+      <c r="ADJ1" s="1" t="s">
         <v>789</v>
       </c>
-      <c s="1" r="ADK1" t="s">
+      <c r="ADK1" s="1" t="s">
         <v>790</v>
       </c>
-      <c s="1" r="ADL1" t="s">
+      <c r="ADL1" s="1" t="s">
         <v>791</v>
       </c>
-      <c s="1" r="ADM1" t="s">
+      <c r="ADM1" s="1" t="s">
         <v>792</v>
       </c>
-      <c s="1" r="ADN1" t="s">
+      <c r="ADN1" s="1" t="s">
         <v>793</v>
       </c>
-      <c s="1" r="ADO1" t="s">
+      <c r="ADO1" s="1" t="s">
         <v>794</v>
       </c>
-      <c s="1" r="ADP1" t="s">
+      <c r="ADP1" s="1" t="s">
         <v>795</v>
       </c>
-      <c s="1" r="ADQ1" t="s">
+      <c r="ADQ1" s="1" t="s">
         <v>796</v>
       </c>
-      <c s="1" r="ADR1" t="s">
+      <c r="ADR1" s="1" t="s">
         <v>797</v>
       </c>
-      <c s="1" r="ADS1" t="s">
+      <c r="ADS1" s="1" t="s">
         <v>798</v>
       </c>
-      <c s="1" r="ADT1" t="s">
+      <c r="ADT1" s="1" t="s">
         <v>799</v>
       </c>
-      <c s="1" r="ADU1" t="s">
+      <c r="ADU1" s="1" t="s">
         <v>800</v>
       </c>
-      <c s="1" r="ADV1" t="s">
+      <c r="ADV1" s="1" t="s">
         <v>801</v>
       </c>
-      <c s="1" r="ADW1" t="s">
+      <c r="ADW1" s="1" t="s">
         <v>802</v>
       </c>
-      <c s="1" r="ADX1" t="s">
+      <c r="ADX1" s="1" t="s">
         <v>803</v>
       </c>
-      <c s="1" r="ADY1" t="s">
+      <c r="ADY1" s="1" t="s">
         <v>804</v>
       </c>
-      <c s="1" r="ADZ1" t="s">
+      <c r="ADZ1" s="1" t="s">
         <v>805</v>
       </c>
-      <c s="1" r="AEA1" t="s">
+      <c r="AEA1" s="1" t="s">
         <v>806</v>
       </c>
-      <c s="1" r="AEB1" t="s">
+      <c r="AEB1" s="1" t="s">
         <v>807</v>
       </c>
-      <c s="1" r="AEC1" t="s">
+      <c r="AEC1" s="1" t="s">
         <v>808</v>
       </c>
-      <c s="1" r="AED1" t="s">
+      <c r="AED1" s="1" t="s">
         <v>809</v>
       </c>
-      <c s="1" r="AEE1" t="s">
+      <c r="AEE1" s="1" t="s">
         <v>810</v>
       </c>
-      <c s="1" r="AEF1" t="s">
+      <c r="AEF1" s="1" t="s">
         <v>811</v>
       </c>
-      <c s="1" r="AEG1" t="s">
+      <c r="AEG1" s="1" t="s">
         <v>812</v>
       </c>
-      <c s="1" r="AEH1" t="s">
+      <c r="AEH1" s="1" t="s">
         <v>813</v>
       </c>
-      <c s="1" r="AEI1" t="s">
+      <c r="AEI1" s="1" t="s">
         <v>814</v>
       </c>
-      <c s="1" r="AEJ1" t="s">
+      <c r="AEJ1" s="1" t="s">
         <v>815</v>
       </c>
-      <c s="1" r="AEK1" t="s">
+      <c r="AEK1" s="1" t="s">
         <v>816</v>
       </c>
-      <c s="1" r="AEL1" t="s">
+      <c r="AEL1" s="1" t="s">
         <v>817</v>
       </c>
-      <c s="1" r="AEM1" t="s">
+      <c r="AEM1" s="1" t="s">
         <v>818</v>
       </c>
-      <c s="1" r="AEN1" t="s">
+      <c r="AEN1" s="1" t="s">
         <v>819</v>
       </c>
-      <c s="1" r="AEO1" t="s">
+      <c r="AEO1" s="1" t="s">
         <v>820</v>
       </c>
-      <c s="1" r="AEP1" t="s">
+      <c r="AEP1" s="1" t="s">
         <v>821</v>
       </c>
-      <c s="1" r="AEQ1" t="s">
+      <c r="AEQ1" s="1" t="s">
         <v>822</v>
       </c>
-      <c s="1" r="AER1" t="s">
+      <c r="AER1" s="1" t="s">
         <v>823</v>
       </c>
-      <c s="1" r="AES1" t="s">
+      <c r="AES1" s="1" t="s">
         <v>824</v>
       </c>
-      <c s="1" r="AET1" t="s">
+      <c r="AET1" s="1" t="s">
         <v>825</v>
       </c>
-      <c s="1" r="AEU1" t="s">
+      <c r="AEU1" s="1" t="s">
         <v>826</v>
       </c>
-      <c s="1" r="AEV1" t="s">
+      <c r="AEV1" s="1" t="s">
         <v>827</v>
       </c>
-      <c s="1" r="AEW1" t="s">
+      <c r="AEW1" s="1" t="s">
         <v>828</v>
       </c>
-      <c s="1" r="AEX1" t="s">
+      <c r="AEX1" s="1" t="s">
         <v>829</v>
       </c>
-      <c s="1" r="AEY1" t="s">
+      <c r="AEY1" s="1" t="s">
         <v>830</v>
       </c>
-      <c s="1" r="AEZ1" t="s">
+      <c r="AEZ1" s="1" t="s">
         <v>831</v>
       </c>
-      <c s="1" r="AFA1" t="s">
+      <c r="AFA1" s="1" t="s">
         <v>832</v>
       </c>
-      <c s="1" r="AFB1" t="s">
+      <c r="AFB1" s="1" t="s">
         <v>833</v>
       </c>
-      <c s="1" r="AFC1" t="s">
+      <c r="AFC1" s="1" t="s">
         <v>834</v>
       </c>
-      <c s="1" r="AFD1" t="s">
+      <c r="AFD1" s="1" t="s">
         <v>835</v>
       </c>
-      <c s="1" r="AFE1" t="s">
+      <c r="AFE1" s="1" t="s">
         <v>836</v>
       </c>
-      <c s="1" r="AFF1" t="s">
+      <c r="AFF1" s="1" t="s">
         <v>837</v>
       </c>
-      <c s="1" r="AFG1" t="s">
+      <c r="AFG1" s="1" t="s">
         <v>838</v>
       </c>
-      <c s="1" r="AFH1" t="s">
+      <c r="AFH1" s="1" t="s">
         <v>839</v>
       </c>
-      <c s="1" r="AFI1" t="s">
+      <c r="AFI1" s="1" t="s">
         <v>840</v>
       </c>
-      <c s="1" r="AFJ1" t="s">
+      <c r="AFJ1" s="1" t="s">
         <v>841</v>
       </c>
-      <c s="1" r="AFK1" t="s">
+      <c r="AFK1" s="1" t="s">
         <v>842</v>
       </c>
-      <c s="1" r="AFL1" t="s">
+      <c r="AFL1" s="1" t="s">
         <v>843</v>
       </c>
-      <c s="1" r="AFM1" t="s">
+      <c r="AFM1" s="1" t="s">
         <v>844</v>
       </c>
-      <c s="1" r="AFN1" t="s">
+      <c r="AFN1" s="1" t="s">
         <v>845</v>
       </c>
-      <c s="1" r="AFO1" t="s">
+      <c r="AFO1" s="1" t="s">
         <v>846</v>
       </c>
     </row>
@@ -42746,6 +42730,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TestXML/xmlTest2.xlsx
+++ b/TestXML/xmlTest2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18270" windowHeight="5700"/>
-  </bookViews>
-  <sheets>
-    <sheet name="{raml20.xsd}raml" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="{raml20.xsd}raml" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12203" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1348">
   <si>
     <t>hh</t>
   </si>
@@ -4065,31 +4064,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <vertAlign val="baseline"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill>
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -4104,29 +4105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical>
+        <color rgb="FF000000"/>
+      </vertical>
+      <horizontal>
+        <color rgb="FF000000"/>
+      </horizontal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -4414,2558 +4429,2559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:AFO847"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:847" ht="84">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:847">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c s="1" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c s="1" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c s="1" r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c s="1" r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c s="1" r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c s="1" r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c s="1" r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c s="1" r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c s="1" r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c s="1" r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c s="1" r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c s="1" r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c s="1" r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c s="1" r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c s="1" r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c s="1" r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c s="1" r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c s="1" r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c s="1" r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c s="1" r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c s="1" r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c s="1" r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c s="1" r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c s="1" r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c s="1" r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c s="1" r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c s="1" r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c s="1" r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c s="1" r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c s="1" r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c s="1" r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c s="1" r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c s="1" r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c s="1" r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c s="1" r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c s="1" r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c s="1" r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c s="1" r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c s="1" r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c s="1" r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c s="1" r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c s="1" r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c s="1" r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c s="1" r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c s="1" r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c s="1" r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c s="1" r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c s="1" r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c s="1" r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c s="1" r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c s="1" r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c s="1" r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c s="1" r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c s="1" r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c s="1" r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c s="1" r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c s="1" r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c s="1" r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c s="1" r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c s="1" r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c s="1" r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c s="1" r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c s="1" r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c s="1" r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c s="1" r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c s="1" r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c s="1" r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c s="1" r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c s="1" r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c s="1" r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c s="1" r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c s="1" r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c s="1" r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c s="1" r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c s="1" r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c s="1" r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c s="1" r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c s="1" r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c s="1" r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c s="1" r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c s="1" r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c s="1" r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c s="1" r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c s="1" r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c s="1" r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c s="1" r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c s="1" r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c s="1" r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c s="1" r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c s="1" r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c s="1" r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c s="1" r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c s="1" r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c s="1" r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c s="1" r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c s="1" r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c s="1" r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c s="1" r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c s="1" r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c s="1" r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c s="1" r="CX1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c s="1" r="CY1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c s="1" r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c s="1" r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c s="1" r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c s="1" r="DC1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c s="1" r="DD1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c s="1" r="DE1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c s="1" r="DF1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c s="1" r="DG1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c s="1" r="DH1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c s="1" r="DI1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c s="1" r="DJ1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c s="1" r="DK1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c s="1" r="DL1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c s="1" r="DM1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c s="1" r="DN1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c s="1" r="DO1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c s="1" r="DP1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c s="1" r="DQ1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c s="1" r="DR1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c s="1" r="DS1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c s="1" r="DT1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c s="1" r="DU1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c s="1" r="DV1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c s="1" r="DW1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c s="1" r="DX1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c s="1" r="DY1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c s="1" r="DZ1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c s="1" r="EA1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c s="1" r="EB1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c s="1" r="EC1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c s="1" r="ED1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c s="1" r="EE1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c s="1" r="EF1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c s="1" r="EG1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c s="1" r="EH1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c s="1" r="EI1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c s="1" r="EJ1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c s="1" r="EK1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c s="1" r="EL1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c s="1" r="EM1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c s="1" r="EN1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c s="1" r="EO1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c s="1" r="EP1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c s="1" r="EQ1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c s="1" r="ER1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c s="1" r="ES1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c s="1" r="ET1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c s="1" r="EU1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c s="1" r="EV1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c s="1" r="EW1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c s="1" r="EX1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c s="1" r="EY1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c s="1" r="EZ1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c s="1" r="FA1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c s="1" r="FB1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c s="1" r="FC1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c s="1" r="FD1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c s="1" r="FE1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c s="1" r="FF1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c s="1" r="FG1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c s="1" r="FH1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c s="1" r="FI1" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c s="1" r="FJ1" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c s="1" r="FK1" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c s="1" r="FL1" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c s="1" r="FM1" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c s="1" r="FN1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c s="1" r="FO1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c s="1" r="FP1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c s="1" r="FQ1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c s="1" r="FR1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c s="1" r="FS1" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c s="1" r="FT1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c s="1" r="FU1" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c s="1" r="FV1" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c s="1" r="FW1" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c s="1" r="FX1" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c s="1" r="FY1" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c s="1" r="FZ1" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c s="1" r="GA1" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c s="1" r="GB1" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c s="1" r="GC1" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c s="1" r="GD1" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c s="1" r="GE1" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c s="1" r="GF1" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c s="1" r="GG1" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c s="1" r="GH1" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c s="1" r="GI1" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c s="1" r="GJ1" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c s="1" r="GK1" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c s="1" r="GL1" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c s="1" r="GM1" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c s="1" r="GN1" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c s="1" r="GO1" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c s="1" r="GP1" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c s="1" r="GQ1" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c s="1" r="GR1" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c s="1" r="GS1" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c s="1" r="GT1" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c s="1" r="GU1" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c s="1" r="GV1" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c s="1" r="GW1" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c s="1" r="GX1" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c s="1" r="GY1" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c s="1" r="GZ1" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c s="1" r="HA1" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c s="1" r="HB1" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c s="1" r="HC1" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c s="1" r="HD1" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c s="1" r="HE1" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c s="1" r="HF1" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c s="1" r="HG1" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c s="1" r="HH1" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c s="1" r="HI1" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c s="1" r="HJ1" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c s="1" r="HK1" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c s="1" r="HL1" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c s="1" r="HM1" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c s="1" r="HN1" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c s="1" r="HO1" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c s="1" r="HP1" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c s="1" r="HQ1" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c s="1" r="HR1" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c s="1" r="HS1" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c s="1" r="HT1" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c s="1" r="HU1" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c s="1" r="HV1" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c s="1" r="HW1" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c s="1" r="HX1" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c s="1" r="HY1" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c s="1" r="HZ1" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c s="1" r="IA1" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c s="1" r="IB1" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c s="1" r="IC1" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c s="1" r="ID1" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c s="1" r="IE1" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c s="1" r="IF1" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c s="1" r="IG1" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c s="1" r="IH1" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c s="1" r="II1" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c s="1" r="IJ1" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c s="1" r="IK1" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c s="1" r="IL1" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c s="1" r="IM1" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c s="1" r="IN1" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c s="1" r="IO1" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c s="1" r="IP1" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c s="1" r="IQ1" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c s="1" r="IR1" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c s="1" r="IS1" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c s="1" r="IT1" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c s="1" r="IU1" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c s="1" r="IV1" t="s">
         <v>255</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c s="1" r="IW1" t="s">
         <v>256</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c s="1" r="IX1" t="s">
         <v>257</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c s="1" r="IY1" t="s">
         <v>258</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c s="1" r="IZ1" t="s">
         <v>259</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c s="1" r="JA1" t="s">
         <v>260</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c s="1" r="JB1" t="s">
         <v>261</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c s="1" r="JC1" t="s">
         <v>262</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c s="1" r="JD1" t="s">
         <v>263</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c s="1" r="JE1" t="s">
         <v>264</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c s="1" r="JF1" t="s">
         <v>265</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c s="1" r="JG1" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c s="1" r="JH1" t="s">
         <v>267</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c s="1" r="JI1" t="s">
         <v>268</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c s="1" r="JJ1" t="s">
         <v>269</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c s="1" r="JK1" t="s">
         <v>270</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c s="1" r="JL1" t="s">
         <v>271</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c s="1" r="JM1" t="s">
         <v>272</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c s="1" r="JN1" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c s="1" r="JO1" t="s">
         <v>274</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c s="1" r="JP1" t="s">
         <v>275</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c s="1" r="JQ1" t="s">
         <v>276</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c s="1" r="JR1" t="s">
         <v>277</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c s="1" r="JS1" t="s">
         <v>278</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c s="1" r="JT1" t="s">
         <v>279</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c s="1" r="JU1" t="s">
         <v>280</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c s="1" r="JV1" t="s">
         <v>281</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c s="1" r="JW1" t="s">
         <v>282</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c s="1" r="JX1" t="s">
         <v>283</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c s="1" r="JY1" t="s">
         <v>284</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c s="1" r="JZ1" t="s">
         <v>285</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c s="1" r="KA1" t="s">
         <v>286</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c s="1" r="KB1" t="s">
         <v>287</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c s="1" r="KC1" t="s">
         <v>288</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c s="1" r="KD1" t="s">
         <v>289</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c s="1" r="KE1" t="s">
         <v>290</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c s="1" r="KF1" t="s">
         <v>291</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c s="1" r="KG1" t="s">
         <v>292</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c s="1" r="KH1" t="s">
         <v>293</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c s="1" r="KI1" t="s">
         <v>294</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c s="1" r="KJ1" t="s">
         <v>295</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c s="1" r="KK1" t="s">
         <v>296</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c s="1" r="KL1" t="s">
         <v>297</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c s="1" r="KM1" t="s">
         <v>298</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c s="1" r="KN1" t="s">
         <v>299</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c s="1" r="KO1" t="s">
         <v>300</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c s="1" r="KP1" t="s">
         <v>301</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c s="1" r="KQ1" t="s">
         <v>302</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c s="1" r="KR1" t="s">
         <v>303</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c s="1" r="KS1" t="s">
         <v>304</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c s="1" r="KT1" t="s">
         <v>305</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c s="1" r="KU1" t="s">
         <v>306</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c s="1" r="KV1" t="s">
         <v>307</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c s="1" r="KW1" t="s">
         <v>308</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c s="1" r="KX1" t="s">
         <v>309</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c s="1" r="KY1" t="s">
         <v>310</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c s="1" r="KZ1" t="s">
         <v>311</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c s="1" r="LA1" t="s">
         <v>312</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c s="1" r="LB1" t="s">
         <v>313</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c s="1" r="LC1" t="s">
         <v>314</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c s="1" r="LD1" t="s">
         <v>315</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c s="1" r="LE1" t="s">
         <v>316</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c s="1" r="LF1" t="s">
         <v>317</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c s="1" r="LG1" t="s">
         <v>318</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c s="1" r="LH1" t="s">
         <v>319</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c s="1" r="LI1" t="s">
         <v>320</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c s="1" r="LJ1" t="s">
         <v>321</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c s="1" r="LK1" t="s">
         <v>322</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c s="1" r="LL1" t="s">
         <v>323</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c s="1" r="LM1" t="s">
         <v>324</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c s="1" r="LN1" t="s">
         <v>325</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c s="1" r="LO1" t="s">
         <v>326</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c s="1" r="LP1" t="s">
         <v>327</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c s="1" r="LQ1" t="s">
         <v>328</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c s="1" r="LR1" t="s">
         <v>329</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c s="1" r="LS1" t="s">
         <v>330</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c s="1" r="LT1" t="s">
         <v>331</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c s="1" r="LU1" t="s">
         <v>332</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c s="1" r="LV1" t="s">
         <v>333</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c s="1" r="LW1" t="s">
         <v>334</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c s="1" r="LX1" t="s">
         <v>335</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c s="1" r="LY1" t="s">
         <v>336</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c s="1" r="LZ1" t="s">
         <v>337</v>
       </c>
-      <c r="MA1" s="1" t="s">
+      <c s="1" r="MA1" t="s">
         <v>338</v>
       </c>
-      <c r="MB1" s="1" t="s">
+      <c s="1" r="MB1" t="s">
         <v>339</v>
       </c>
-      <c r="MC1" s="1" t="s">
+      <c s="1" r="MC1" t="s">
         <v>340</v>
       </c>
-      <c r="MD1" s="1" t="s">
+      <c s="1" r="MD1" t="s">
         <v>341</v>
       </c>
-      <c r="ME1" s="1" t="s">
+      <c s="1" r="ME1" t="s">
         <v>342</v>
       </c>
-      <c r="MF1" s="1" t="s">
+      <c s="1" r="MF1" t="s">
         <v>343</v>
       </c>
-      <c r="MG1" s="1" t="s">
+      <c s="1" r="MG1" t="s">
         <v>344</v>
       </c>
-      <c r="MH1" s="1" t="s">
+      <c s="1" r="MH1" t="s">
         <v>345</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c s="1" r="MI1" t="s">
         <v>346</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c s="1" r="MJ1" t="s">
         <v>347</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c s="1" r="MK1" t="s">
         <v>348</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c s="1" r="ML1" t="s">
         <v>349</v>
       </c>
-      <c r="MM1" s="1" t="s">
+      <c s="1" r="MM1" t="s">
         <v>350</v>
       </c>
-      <c r="MN1" s="1" t="s">
+      <c s="1" r="MN1" t="s">
         <v>351</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c s="1" r="MO1" t="s">
         <v>352</v>
       </c>
-      <c r="MP1" s="1" t="s">
+      <c s="1" r="MP1" t="s">
         <v>353</v>
       </c>
-      <c r="MQ1" s="1" t="s">
+      <c s="1" r="MQ1" t="s">
         <v>354</v>
       </c>
-      <c r="MR1" s="1" t="s">
+      <c s="1" r="MR1" t="s">
         <v>355</v>
       </c>
-      <c r="MS1" s="1" t="s">
+      <c s="1" r="MS1" t="s">
         <v>356</v>
       </c>
-      <c r="MT1" s="1" t="s">
+      <c s="1" r="MT1" t="s">
         <v>357</v>
       </c>
-      <c r="MU1" s="1" t="s">
+      <c s="1" r="MU1" t="s">
         <v>358</v>
       </c>
-      <c r="MV1" s="1" t="s">
+      <c s="1" r="MV1" t="s">
         <v>359</v>
       </c>
-      <c r="MW1" s="1" t="s">
+      <c s="1" r="MW1" t="s">
         <v>360</v>
       </c>
-      <c r="MX1" s="1" t="s">
+      <c s="1" r="MX1" t="s">
         <v>361</v>
       </c>
-      <c r="MY1" s="1" t="s">
+      <c s="1" r="MY1" t="s">
         <v>362</v>
       </c>
-      <c r="MZ1" s="1" t="s">
+      <c s="1" r="MZ1" t="s">
         <v>363</v>
       </c>
-      <c r="NA1" s="1" t="s">
+      <c s="1" r="NA1" t="s">
         <v>364</v>
       </c>
-      <c r="NB1" s="1" t="s">
+      <c s="1" r="NB1" t="s">
         <v>365</v>
       </c>
-      <c r="NC1" s="1" t="s">
+      <c s="1" r="NC1" t="s">
         <v>366</v>
       </c>
-      <c r="ND1" s="1" t="s">
+      <c s="1" r="ND1" t="s">
         <v>367</v>
       </c>
-      <c r="NE1" s="1" t="s">
+      <c s="1" r="NE1" t="s">
         <v>368</v>
       </c>
-      <c r="NF1" s="1" t="s">
+      <c s="1" r="NF1" t="s">
         <v>369</v>
       </c>
-      <c r="NG1" s="1" t="s">
+      <c s="1" r="NG1" t="s">
         <v>370</v>
       </c>
-      <c r="NH1" s="1" t="s">
+      <c s="1" r="NH1" t="s">
         <v>371</v>
       </c>
-      <c r="NI1" s="1" t="s">
+      <c s="1" r="NI1" t="s">
         <v>372</v>
       </c>
-      <c r="NJ1" s="1" t="s">
+      <c s="1" r="NJ1" t="s">
         <v>373</v>
       </c>
-      <c r="NK1" s="1" t="s">
+      <c s="1" r="NK1" t="s">
         <v>374</v>
       </c>
-      <c r="NL1" s="1" t="s">
+      <c s="1" r="NL1" t="s">
         <v>375</v>
       </c>
-      <c r="NM1" s="1" t="s">
+      <c s="1" r="NM1" t="s">
         <v>376</v>
       </c>
-      <c r="NN1" s="1" t="s">
+      <c s="1" r="NN1" t="s">
         <v>377</v>
       </c>
-      <c r="NO1" s="1" t="s">
+      <c s="1" r="NO1" t="s">
         <v>378</v>
       </c>
-      <c r="NP1" s="1" t="s">
+      <c s="1" r="NP1" t="s">
         <v>379</v>
       </c>
-      <c r="NQ1" s="1" t="s">
+      <c s="1" r="NQ1" t="s">
         <v>380</v>
       </c>
-      <c r="NR1" s="1" t="s">
+      <c s="1" r="NR1" t="s">
         <v>381</v>
       </c>
-      <c r="NS1" s="1" t="s">
+      <c s="1" r="NS1" t="s">
         <v>382</v>
       </c>
-      <c r="NT1" s="1" t="s">
+      <c s="1" r="NT1" t="s">
         <v>383</v>
       </c>
-      <c r="NU1" s="1" t="s">
+      <c s="1" r="NU1" t="s">
         <v>384</v>
       </c>
-      <c r="NV1" s="1" t="s">
+      <c s="1" r="NV1" t="s">
         <v>385</v>
       </c>
-      <c r="NW1" s="1" t="s">
+      <c s="1" r="NW1" t="s">
         <v>386</v>
       </c>
-      <c r="NX1" s="1" t="s">
+      <c s="1" r="NX1" t="s">
         <v>387</v>
       </c>
-      <c r="NY1" s="1" t="s">
+      <c s="1" r="NY1" t="s">
         <v>388</v>
       </c>
-      <c r="NZ1" s="1" t="s">
+      <c s="1" r="NZ1" t="s">
         <v>389</v>
       </c>
-      <c r="OA1" s="1" t="s">
+      <c s="1" r="OA1" t="s">
         <v>390</v>
       </c>
-      <c r="OB1" s="1" t="s">
+      <c s="1" r="OB1" t="s">
         <v>391</v>
       </c>
-      <c r="OC1" s="1" t="s">
+      <c s="1" r="OC1" t="s">
         <v>392</v>
       </c>
-      <c r="OD1" s="1" t="s">
+      <c s="1" r="OD1" t="s">
         <v>393</v>
       </c>
-      <c r="OE1" s="1" t="s">
+      <c s="1" r="OE1" t="s">
         <v>394</v>
       </c>
-      <c r="OF1" s="1" t="s">
+      <c s="1" r="OF1" t="s">
         <v>395</v>
       </c>
-      <c r="OG1" s="1" t="s">
+      <c s="1" r="OG1" t="s">
         <v>396</v>
       </c>
-      <c r="OH1" s="1" t="s">
+      <c s="1" r="OH1" t="s">
         <v>397</v>
       </c>
-      <c r="OI1" s="1" t="s">
+      <c s="1" r="OI1" t="s">
         <v>398</v>
       </c>
-      <c r="OJ1" s="1" t="s">
+      <c s="1" r="OJ1" t="s">
         <v>399</v>
       </c>
-      <c r="OK1" s="1" t="s">
+      <c s="1" r="OK1" t="s">
         <v>400</v>
       </c>
-      <c r="OL1" s="1" t="s">
+      <c s="1" r="OL1" t="s">
         <v>401</v>
       </c>
-      <c r="OM1" s="1" t="s">
+      <c s="1" r="OM1" t="s">
         <v>402</v>
       </c>
-      <c r="ON1" s="1" t="s">
+      <c s="1" r="ON1" t="s">
         <v>403</v>
       </c>
-      <c r="OO1" s="1" t="s">
+      <c s="1" r="OO1" t="s">
         <v>404</v>
       </c>
-      <c r="OP1" s="1" t="s">
+      <c s="1" r="OP1" t="s">
         <v>405</v>
       </c>
-      <c r="OQ1" s="1" t="s">
+      <c s="1" r="OQ1" t="s">
         <v>406</v>
       </c>
-      <c r="OR1" s="1" t="s">
+      <c s="1" r="OR1" t="s">
         <v>407</v>
       </c>
-      <c r="OS1" s="1" t="s">
+      <c s="1" r="OS1" t="s">
         <v>408</v>
       </c>
-      <c r="OT1" s="1" t="s">
+      <c s="1" r="OT1" t="s">
         <v>409</v>
       </c>
-      <c r="OU1" s="1" t="s">
+      <c s="1" r="OU1" t="s">
         <v>410</v>
       </c>
-      <c r="OV1" s="1" t="s">
+      <c s="1" r="OV1" t="s">
         <v>411</v>
       </c>
-      <c r="OW1" s="1" t="s">
+      <c s="1" r="OW1" t="s">
         <v>412</v>
       </c>
-      <c r="OX1" s="1" t="s">
+      <c s="1" r="OX1" t="s">
         <v>413</v>
       </c>
-      <c r="OY1" s="1" t="s">
+      <c s="1" r="OY1" t="s">
         <v>414</v>
       </c>
-      <c r="OZ1" s="1" t="s">
+      <c s="1" r="OZ1" t="s">
         <v>415</v>
       </c>
-      <c r="PA1" s="1" t="s">
+      <c s="1" r="PA1" t="s">
         <v>416</v>
       </c>
-      <c r="PB1" s="1" t="s">
+      <c s="1" r="PB1" t="s">
         <v>417</v>
       </c>
-      <c r="PC1" s="1" t="s">
+      <c s="1" r="PC1" t="s">
         <v>418</v>
       </c>
-      <c r="PD1" s="1" t="s">
+      <c s="1" r="PD1" t="s">
         <v>419</v>
       </c>
-      <c r="PE1" s="1" t="s">
+      <c s="1" r="PE1" t="s">
         <v>420</v>
       </c>
-      <c r="PF1" s="1" t="s">
+      <c s="1" r="PF1" t="s">
         <v>421</v>
       </c>
-      <c r="PG1" s="1" t="s">
+      <c s="1" r="PG1" t="s">
         <v>422</v>
       </c>
-      <c r="PH1" s="1" t="s">
+      <c s="1" r="PH1" t="s">
         <v>423</v>
       </c>
-      <c r="PI1" s="1" t="s">
+      <c s="1" r="PI1" t="s">
         <v>424</v>
       </c>
-      <c r="PJ1" s="1" t="s">
+      <c s="1" r="PJ1" t="s">
         <v>425</v>
       </c>
-      <c r="PK1" s="1" t="s">
+      <c s="1" r="PK1" t="s">
         <v>426</v>
       </c>
-      <c r="PL1" s="1" t="s">
+      <c s="1" r="PL1" t="s">
         <v>427</v>
       </c>
-      <c r="PM1" s="1" t="s">
+      <c s="1" r="PM1" t="s">
         <v>428</v>
       </c>
-      <c r="PN1" s="1" t="s">
+      <c s="1" r="PN1" t="s">
         <v>429</v>
       </c>
-      <c r="PO1" s="1" t="s">
+      <c s="1" r="PO1" t="s">
         <v>430</v>
       </c>
-      <c r="PP1" s="1" t="s">
+      <c s="1" r="PP1" t="s">
         <v>431</v>
       </c>
-      <c r="PQ1" s="1" t="s">
+      <c s="1" r="PQ1" t="s">
         <v>432</v>
       </c>
-      <c r="PR1" s="1" t="s">
+      <c s="1" r="PR1" t="s">
         <v>433</v>
       </c>
-      <c r="PS1" s="1" t="s">
+      <c s="1" r="PS1" t="s">
         <v>434</v>
       </c>
-      <c r="PT1" s="1" t="s">
+      <c s="1" r="PT1" t="s">
         <v>435</v>
       </c>
-      <c r="PU1" s="1" t="s">
+      <c s="1" r="PU1" t="s">
         <v>436</v>
       </c>
-      <c r="PV1" s="1" t="s">
+      <c s="1" r="PV1" t="s">
         <v>437</v>
       </c>
-      <c r="PW1" s="1" t="s">
+      <c s="1" r="PW1" t="s">
         <v>438</v>
       </c>
-      <c r="PX1" s="1" t="s">
+      <c s="1" r="PX1" t="s">
         <v>439</v>
       </c>
-      <c r="PY1" s="1" t="s">
+      <c s="1" r="PY1" t="s">
         <v>440</v>
       </c>
-      <c r="PZ1" s="1" t="s">
+      <c s="1" r="PZ1" t="s">
         <v>441</v>
       </c>
-      <c r="QA1" s="1" t="s">
+      <c s="1" r="QA1" t="s">
         <v>442</v>
       </c>
-      <c r="QB1" s="1" t="s">
+      <c s="1" r="QB1" t="s">
         <v>443</v>
       </c>
-      <c r="QC1" s="1" t="s">
+      <c s="1" r="QC1" t="s">
         <v>444</v>
       </c>
-      <c r="QD1" s="1" t="s">
+      <c s="1" r="QD1" t="s">
         <v>445</v>
       </c>
-      <c r="QE1" s="1" t="s">
+      <c s="1" r="QE1" t="s">
         <v>446</v>
       </c>
-      <c r="QF1" s="1" t="s">
+      <c s="1" r="QF1" t="s">
         <v>447</v>
       </c>
-      <c r="QG1" s="1" t="s">
+      <c s="1" r="QG1" t="s">
         <v>448</v>
       </c>
-      <c r="QH1" s="1" t="s">
+      <c s="1" r="QH1" t="s">
         <v>449</v>
       </c>
-      <c r="QI1" s="1" t="s">
+      <c s="1" r="QI1" t="s">
         <v>450</v>
       </c>
-      <c r="QJ1" s="1" t="s">
+      <c s="1" r="QJ1" t="s">
         <v>451</v>
       </c>
-      <c r="QK1" s="1" t="s">
+      <c s="1" r="QK1" t="s">
         <v>452</v>
       </c>
-      <c r="QL1" s="1" t="s">
+      <c s="1" r="QL1" t="s">
         <v>453</v>
       </c>
-      <c r="QM1" s="1" t="s">
+      <c s="1" r="QM1" t="s">
         <v>454</v>
       </c>
-      <c r="QN1" s="1" t="s">
+      <c s="1" r="QN1" t="s">
         <v>455</v>
       </c>
-      <c r="QO1" s="1" t="s">
+      <c s="1" r="QO1" t="s">
         <v>456</v>
       </c>
-      <c r="QP1" s="1" t="s">
+      <c s="1" r="QP1" t="s">
         <v>457</v>
       </c>
-      <c r="QQ1" s="1" t="s">
+      <c s="1" r="QQ1" t="s">
         <v>458</v>
       </c>
-      <c r="QR1" s="1" t="s">
+      <c s="1" r="QR1" t="s">
         <v>459</v>
       </c>
-      <c r="QS1" s="1" t="s">
+      <c s="1" r="QS1" t="s">
         <v>460</v>
       </c>
-      <c r="QT1" s="1" t="s">
+      <c s="1" r="QT1" t="s">
         <v>461</v>
       </c>
-      <c r="QU1" s="1" t="s">
+      <c s="1" r="QU1" t="s">
         <v>462</v>
       </c>
-      <c r="QV1" s="1" t="s">
+      <c s="1" r="QV1" t="s">
         <v>463</v>
       </c>
-      <c r="QW1" s="1" t="s">
+      <c s="1" r="QW1" t="s">
         <v>464</v>
       </c>
-      <c r="QX1" s="1" t="s">
+      <c s="1" r="QX1" t="s">
         <v>465</v>
       </c>
-      <c r="QY1" s="1" t="s">
+      <c s="1" r="QY1" t="s">
         <v>466</v>
       </c>
-      <c r="QZ1" s="1" t="s">
+      <c s="1" r="QZ1" t="s">
         <v>467</v>
       </c>
-      <c r="RA1" s="1" t="s">
+      <c s="1" r="RA1" t="s">
         <v>468</v>
       </c>
-      <c r="RB1" s="1" t="s">
+      <c s="1" r="RB1" t="s">
         <v>469</v>
       </c>
-      <c r="RC1" s="1" t="s">
+      <c s="1" r="RC1" t="s">
         <v>470</v>
       </c>
-      <c r="RD1" s="1" t="s">
+      <c s="1" r="RD1" t="s">
         <v>471</v>
       </c>
-      <c r="RE1" s="1" t="s">
+      <c s="1" r="RE1" t="s">
         <v>472</v>
       </c>
-      <c r="RF1" s="1" t="s">
+      <c s="1" r="RF1" t="s">
         <v>473</v>
       </c>
-      <c r="RG1" s="1" t="s">
+      <c s="1" r="RG1" t="s">
         <v>474</v>
       </c>
-      <c r="RH1" s="1" t="s">
+      <c s="1" r="RH1" t="s">
         <v>475</v>
       </c>
-      <c r="RI1" s="1" t="s">
+      <c s="1" r="RI1" t="s">
         <v>476</v>
       </c>
-      <c r="RJ1" s="1" t="s">
+      <c s="1" r="RJ1" t="s">
         <v>477</v>
       </c>
-      <c r="RK1" s="1" t="s">
+      <c s="1" r="RK1" t="s">
         <v>478</v>
       </c>
-      <c r="RL1" s="1" t="s">
+      <c s="1" r="RL1" t="s">
         <v>479</v>
       </c>
-      <c r="RM1" s="1" t="s">
+      <c s="1" r="RM1" t="s">
         <v>480</v>
       </c>
-      <c r="RN1" s="1" t="s">
+      <c s="1" r="RN1" t="s">
         <v>481</v>
       </c>
-      <c r="RO1" s="1" t="s">
+      <c s="1" r="RO1" t="s">
         <v>482</v>
       </c>
-      <c r="RP1" s="1" t="s">
+      <c s="1" r="RP1" t="s">
         <v>483</v>
       </c>
-      <c r="RQ1" s="1" t="s">
+      <c s="1" r="RQ1" t="s">
         <v>484</v>
       </c>
-      <c r="RR1" s="1" t="s">
+      <c s="1" r="RR1" t="s">
         <v>485</v>
       </c>
-      <c r="RS1" s="1" t="s">
+      <c s="1" r="RS1" t="s">
         <v>486</v>
       </c>
-      <c r="RT1" s="1" t="s">
+      <c s="1" r="RT1" t="s">
         <v>487</v>
       </c>
-      <c r="RU1" s="1" t="s">
+      <c s="1" r="RU1" t="s">
         <v>488</v>
       </c>
-      <c r="RV1" s="1" t="s">
+      <c s="1" r="RV1" t="s">
         <v>489</v>
       </c>
-      <c r="RW1" s="1" t="s">
+      <c s="1" r="RW1" t="s">
         <v>490</v>
       </c>
-      <c r="RX1" s="1" t="s">
+      <c s="1" r="RX1" t="s">
         <v>491</v>
       </c>
-      <c r="RY1" s="1" t="s">
+      <c s="1" r="RY1" t="s">
         <v>492</v>
       </c>
-      <c r="RZ1" s="1" t="s">
+      <c s="1" r="RZ1" t="s">
         <v>493</v>
       </c>
-      <c r="SA1" s="1" t="s">
+      <c s="1" r="SA1" t="s">
         <v>494</v>
       </c>
-      <c r="SB1" s="1" t="s">
+      <c s="1" r="SB1" t="s">
         <v>495</v>
       </c>
-      <c r="SC1" s="1" t="s">
+      <c s="1" r="SC1" t="s">
         <v>496</v>
       </c>
-      <c r="SD1" s="1" t="s">
+      <c s="1" r="SD1" t="s">
         <v>497</v>
       </c>
-      <c r="SE1" s="1" t="s">
+      <c s="1" r="SE1" t="s">
         <v>498</v>
       </c>
-      <c r="SF1" s="1" t="s">
+      <c s="1" r="SF1" t="s">
         <v>499</v>
       </c>
-      <c r="SG1" s="1" t="s">
+      <c s="1" r="SG1" t="s">
         <v>500</v>
       </c>
-      <c r="SH1" s="1" t="s">
+      <c s="1" r="SH1" t="s">
         <v>501</v>
       </c>
-      <c r="SI1" s="1" t="s">
+      <c s="1" r="SI1" t="s">
         <v>502</v>
       </c>
-      <c r="SJ1" s="1" t="s">
+      <c s="1" r="SJ1" t="s">
         <v>503</v>
       </c>
-      <c r="SK1" s="1" t="s">
+      <c s="1" r="SK1" t="s">
         <v>504</v>
       </c>
-      <c r="SL1" s="1" t="s">
+      <c s="1" r="SL1" t="s">
         <v>505</v>
       </c>
-      <c r="SM1" s="1" t="s">
+      <c s="1" r="SM1" t="s">
         <v>506</v>
       </c>
-      <c r="SN1" s="1" t="s">
+      <c s="1" r="SN1" t="s">
         <v>507</v>
       </c>
-      <c r="SO1" s="1" t="s">
+      <c s="1" r="SO1" t="s">
         <v>508</v>
       </c>
-      <c r="SP1" s="1" t="s">
+      <c s="1" r="SP1" t="s">
         <v>509</v>
       </c>
-      <c r="SQ1" s="1" t="s">
+      <c s="1" r="SQ1" t="s">
         <v>510</v>
       </c>
-      <c r="SR1" s="1" t="s">
+      <c s="1" r="SR1" t="s">
         <v>511</v>
       </c>
-      <c r="SS1" s="1" t="s">
+      <c s="1" r="SS1" t="s">
         <v>512</v>
       </c>
-      <c r="ST1" s="1" t="s">
+      <c s="1" r="ST1" t="s">
         <v>513</v>
       </c>
-      <c r="SU1" s="1" t="s">
+      <c s="1" r="SU1" t="s">
         <v>514</v>
       </c>
-      <c r="SV1" s="1" t="s">
+      <c s="1" r="SV1" t="s">
         <v>515</v>
       </c>
-      <c r="SW1" s="1" t="s">
+      <c s="1" r="SW1" t="s">
         <v>516</v>
       </c>
-      <c r="SX1" s="1" t="s">
+      <c s="1" r="SX1" t="s">
         <v>517</v>
       </c>
-      <c r="SY1" s="1" t="s">
+      <c s="1" r="SY1" t="s">
         <v>518</v>
       </c>
-      <c r="SZ1" s="1" t="s">
+      <c s="1" r="SZ1" t="s">
         <v>519</v>
       </c>
-      <c r="TA1" s="1" t="s">
+      <c s="1" r="TA1" t="s">
         <v>520</v>
       </c>
-      <c r="TB1" s="1" t="s">
+      <c s="1" r="TB1" t="s">
         <v>521</v>
       </c>
-      <c r="TC1" s="1" t="s">
+      <c s="1" r="TC1" t="s">
         <v>522</v>
       </c>
-      <c r="TD1" s="1" t="s">
+      <c s="1" r="TD1" t="s">
         <v>523</v>
       </c>
-      <c r="TE1" s="1" t="s">
+      <c s="1" r="TE1" t="s">
         <v>524</v>
       </c>
-      <c r="TF1" s="1" t="s">
+      <c s="1" r="TF1" t="s">
         <v>525</v>
       </c>
-      <c r="TG1" s="1" t="s">
+      <c s="1" r="TG1" t="s">
         <v>526</v>
       </c>
-      <c r="TH1" s="1" t="s">
+      <c s="1" r="TH1" t="s">
         <v>527</v>
       </c>
-      <c r="TI1" s="1" t="s">
+      <c s="1" r="TI1" t="s">
         <v>528</v>
       </c>
-      <c r="TJ1" s="1" t="s">
+      <c s="1" r="TJ1" t="s">
         <v>529</v>
       </c>
-      <c r="TK1" s="1" t="s">
+      <c s="1" r="TK1" t="s">
         <v>530</v>
       </c>
-      <c r="TL1" s="1" t="s">
+      <c s="1" r="TL1" t="s">
         <v>531</v>
       </c>
-      <c r="TM1" s="1" t="s">
+      <c s="1" r="TM1" t="s">
         <v>532</v>
       </c>
-      <c r="TN1" s="1" t="s">
+      <c s="1" r="TN1" t="s">
         <v>533</v>
       </c>
-      <c r="TO1" s="1" t="s">
+      <c s="1" r="TO1" t="s">
         <v>534</v>
       </c>
-      <c r="TP1" s="1" t="s">
+      <c s="1" r="TP1" t="s">
         <v>535</v>
       </c>
-      <c r="TQ1" s="1" t="s">
+      <c s="1" r="TQ1" t="s">
         <v>536</v>
       </c>
-      <c r="TR1" s="1" t="s">
+      <c s="1" r="TR1" t="s">
         <v>537</v>
       </c>
-      <c r="TS1" s="1" t="s">
+      <c s="1" r="TS1" t="s">
         <v>538</v>
       </c>
-      <c r="TT1" s="1" t="s">
+      <c s="1" r="TT1" t="s">
         <v>539</v>
       </c>
-      <c r="TU1" s="1" t="s">
+      <c s="1" r="TU1" t="s">
         <v>540</v>
       </c>
-      <c r="TV1" s="1" t="s">
+      <c s="1" r="TV1" t="s">
         <v>541</v>
       </c>
-      <c r="TW1" s="1" t="s">
+      <c s="1" r="TW1" t="s">
         <v>542</v>
       </c>
-      <c r="TX1" s="1" t="s">
+      <c s="1" r="TX1" t="s">
         <v>543</v>
       </c>
-      <c r="TY1" s="1" t="s">
+      <c s="1" r="TY1" t="s">
         <v>544</v>
       </c>
-      <c r="TZ1" s="1" t="s">
+      <c s="1" r="TZ1" t="s">
         <v>545</v>
       </c>
-      <c r="UA1" s="1" t="s">
+      <c s="1" r="UA1" t="s">
         <v>546</v>
       </c>
-      <c r="UB1" s="1" t="s">
+      <c s="1" r="UB1" t="s">
         <v>547</v>
       </c>
-      <c r="UC1" s="1" t="s">
+      <c s="1" r="UC1" t="s">
         <v>548</v>
       </c>
-      <c r="UD1" s="1" t="s">
+      <c s="1" r="UD1" t="s">
         <v>549</v>
       </c>
-      <c r="UE1" s="1" t="s">
+      <c s="1" r="UE1" t="s">
         <v>550</v>
       </c>
-      <c r="UF1" s="1" t="s">
+      <c s="1" r="UF1" t="s">
         <v>551</v>
       </c>
-      <c r="UG1" s="1" t="s">
+      <c s="1" r="UG1" t="s">
         <v>552</v>
       </c>
-      <c r="UH1" s="1" t="s">
+      <c s="1" r="UH1" t="s">
         <v>553</v>
       </c>
-      <c r="UI1" s="1" t="s">
+      <c s="1" r="UI1" t="s">
         <v>554</v>
       </c>
-      <c r="UJ1" s="1" t="s">
+      <c s="1" r="UJ1" t="s">
         <v>555</v>
       </c>
-      <c r="UK1" s="1" t="s">
+      <c s="1" r="UK1" t="s">
         <v>556</v>
       </c>
-      <c r="UL1" s="1" t="s">
+      <c s="1" r="UL1" t="s">
         <v>557</v>
       </c>
-      <c r="UM1" s="1" t="s">
+      <c s="1" r="UM1" t="s">
         <v>558</v>
       </c>
-      <c r="UN1" s="1" t="s">
+      <c s="1" r="UN1" t="s">
         <v>559</v>
       </c>
-      <c r="UO1" s="1" t="s">
+      <c s="1" r="UO1" t="s">
         <v>560</v>
       </c>
-      <c r="UP1" s="1" t="s">
+      <c s="1" r="UP1" t="s">
         <v>561</v>
       </c>
-      <c r="UQ1" s="1" t="s">
+      <c s="1" r="UQ1" t="s">
         <v>562</v>
       </c>
-      <c r="UR1" s="1" t="s">
+      <c s="1" r="UR1" t="s">
         <v>563</v>
       </c>
-      <c r="US1" s="1" t="s">
+      <c s="1" r="US1" t="s">
         <v>564</v>
       </c>
-      <c r="UT1" s="1" t="s">
+      <c s="1" r="UT1" t="s">
         <v>565</v>
       </c>
-      <c r="UU1" s="1" t="s">
+      <c s="1" r="UU1" t="s">
         <v>566</v>
       </c>
-      <c r="UV1" s="1" t="s">
+      <c s="1" r="UV1" t="s">
         <v>567</v>
       </c>
-      <c r="UW1" s="1" t="s">
+      <c s="1" r="UW1" t="s">
         <v>568</v>
       </c>
-      <c r="UX1" s="1" t="s">
+      <c s="1" r="UX1" t="s">
         <v>569</v>
       </c>
-      <c r="UY1" s="1" t="s">
+      <c s="1" r="UY1" t="s">
         <v>570</v>
       </c>
-      <c r="UZ1" s="1" t="s">
+      <c s="1" r="UZ1" t="s">
         <v>571</v>
       </c>
-      <c r="VA1" s="1" t="s">
+      <c s="1" r="VA1" t="s">
         <v>572</v>
       </c>
-      <c r="VB1" s="1" t="s">
+      <c s="1" r="VB1" t="s">
         <v>573</v>
       </c>
-      <c r="VC1" s="1" t="s">
+      <c s="1" r="VC1" t="s">
         <v>574</v>
       </c>
-      <c r="VD1" s="1" t="s">
+      <c s="1" r="VD1" t="s">
         <v>575</v>
       </c>
-      <c r="VE1" s="1" t="s">
+      <c s="1" r="VE1" t="s">
         <v>576</v>
       </c>
-      <c r="VF1" s="1" t="s">
+      <c s="1" r="VF1" t="s">
         <v>577</v>
       </c>
-      <c r="VG1" s="1" t="s">
+      <c s="1" r="VG1" t="s">
         <v>578</v>
       </c>
-      <c r="VH1" s="1" t="s">
+      <c s="1" r="VH1" t="s">
         <v>579</v>
       </c>
-      <c r="VI1" s="1" t="s">
+      <c s="1" r="VI1" t="s">
         <v>580</v>
       </c>
-      <c r="VJ1" s="1" t="s">
+      <c s="1" r="VJ1" t="s">
         <v>581</v>
       </c>
-      <c r="VK1" s="1" t="s">
+      <c s="1" r="VK1" t="s">
         <v>582</v>
       </c>
-      <c r="VL1" s="1" t="s">
+      <c s="1" r="VL1" t="s">
         <v>583</v>
       </c>
-      <c r="VM1" s="1" t="s">
+      <c s="1" r="VM1" t="s">
         <v>584</v>
       </c>
-      <c r="VN1" s="1" t="s">
+      <c s="1" r="VN1" t="s">
         <v>585</v>
       </c>
-      <c r="VO1" s="1" t="s">
+      <c s="1" r="VO1" t="s">
         <v>586</v>
       </c>
-      <c r="VP1" s="1" t="s">
+      <c s="1" r="VP1" t="s">
         <v>587</v>
       </c>
-      <c r="VQ1" s="1" t="s">
+      <c s="1" r="VQ1" t="s">
         <v>588</v>
       </c>
-      <c r="VR1" s="1" t="s">
+      <c s="1" r="VR1" t="s">
         <v>589</v>
       </c>
-      <c r="VS1" s="1" t="s">
+      <c s="1" r="VS1" t="s">
         <v>590</v>
       </c>
-      <c r="VT1" s="1" t="s">
+      <c s="1" r="VT1" t="s">
         <v>591</v>
       </c>
-      <c r="VU1" s="1" t="s">
+      <c s="1" r="VU1" t="s">
         <v>592</v>
       </c>
-      <c r="VV1" s="1" t="s">
+      <c s="1" r="VV1" t="s">
         <v>593</v>
       </c>
-      <c r="VW1" s="1" t="s">
+      <c s="1" r="VW1" t="s">
         <v>594</v>
       </c>
-      <c r="VX1" s="1" t="s">
+      <c s="1" r="VX1" t="s">
         <v>595</v>
       </c>
-      <c r="VY1" s="1" t="s">
+      <c s="1" r="VY1" t="s">
         <v>596</v>
       </c>
-      <c r="VZ1" s="1" t="s">
+      <c s="1" r="VZ1" t="s">
         <v>597</v>
       </c>
-      <c r="WA1" s="1" t="s">
+      <c s="1" r="WA1" t="s">
         <v>598</v>
       </c>
-      <c r="WB1" s="1" t="s">
+      <c s="1" r="WB1" t="s">
         <v>599</v>
       </c>
-      <c r="WC1" s="1" t="s">
+      <c s="1" r="WC1" t="s">
         <v>600</v>
       </c>
-      <c r="WD1" s="1" t="s">
+      <c s="1" r="WD1" t="s">
         <v>601</v>
       </c>
-      <c r="WE1" s="1" t="s">
+      <c s="1" r="WE1" t="s">
         <v>602</v>
       </c>
-      <c r="WF1" s="1" t="s">
+      <c s="1" r="WF1" t="s">
         <v>603</v>
       </c>
-      <c r="WG1" s="1" t="s">
+      <c s="1" r="WG1" t="s">
         <v>604</v>
       </c>
-      <c r="WH1" s="1" t="s">
+      <c s="1" r="WH1" t="s">
         <v>605</v>
       </c>
-      <c r="WI1" s="1" t="s">
+      <c s="1" r="WI1" t="s">
         <v>606</v>
       </c>
-      <c r="WJ1" s="1" t="s">
+      <c s="1" r="WJ1" t="s">
         <v>607</v>
       </c>
-      <c r="WK1" s="1" t="s">
+      <c s="1" r="WK1" t="s">
         <v>608</v>
       </c>
-      <c r="WL1" s="1" t="s">
+      <c s="1" r="WL1" t="s">
         <v>609</v>
       </c>
-      <c r="WM1" s="1" t="s">
+      <c s="1" r="WM1" t="s">
         <v>610</v>
       </c>
-      <c r="WN1" s="1" t="s">
+      <c s="1" r="WN1" t="s">
         <v>611</v>
       </c>
-      <c r="WO1" s="1" t="s">
+      <c s="1" r="WO1" t="s">
         <v>612</v>
       </c>
-      <c r="WP1" s="1" t="s">
+      <c s="1" r="WP1" t="s">
         <v>613</v>
       </c>
-      <c r="WQ1" s="1" t="s">
+      <c s="1" r="WQ1" t="s">
         <v>614</v>
       </c>
-      <c r="WR1" s="1" t="s">
+      <c s="1" r="WR1" t="s">
         <v>615</v>
       </c>
-      <c r="WS1" s="1" t="s">
+      <c s="1" r="WS1" t="s">
         <v>616</v>
       </c>
-      <c r="WT1" s="1" t="s">
+      <c s="1" r="WT1" t="s">
         <v>617</v>
       </c>
-      <c r="WU1" s="1" t="s">
+      <c s="1" r="WU1" t="s">
         <v>618</v>
       </c>
-      <c r="WV1" s="1" t="s">
+      <c s="1" r="WV1" t="s">
         <v>619</v>
       </c>
-      <c r="WW1" s="1" t="s">
+      <c s="1" r="WW1" t="s">
         <v>620</v>
       </c>
-      <c r="WX1" s="1" t="s">
+      <c s="1" r="WX1" t="s">
         <v>621</v>
       </c>
-      <c r="WY1" s="1" t="s">
+      <c s="1" r="WY1" t="s">
         <v>622</v>
       </c>
-      <c r="WZ1" s="1" t="s">
+      <c s="1" r="WZ1" t="s">
         <v>623</v>
       </c>
-      <c r="XA1" s="1" t="s">
+      <c s="1" r="XA1" t="s">
         <v>624</v>
       </c>
-      <c r="XB1" s="1" t="s">
+      <c s="1" r="XB1" t="s">
         <v>625</v>
       </c>
-      <c r="XC1" s="1" t="s">
+      <c s="1" r="XC1" t="s">
         <v>626</v>
       </c>
-      <c r="XD1" s="1" t="s">
+      <c s="1" r="XD1" t="s">
         <v>627</v>
       </c>
-      <c r="XE1" s="1" t="s">
+      <c s="1" r="XE1" t="s">
         <v>628</v>
       </c>
-      <c r="XF1" s="1" t="s">
+      <c s="1" r="XF1" t="s">
         <v>629</v>
       </c>
-      <c r="XG1" s="1" t="s">
+      <c s="1" r="XG1" t="s">
         <v>630</v>
       </c>
-      <c r="XH1" s="1" t="s">
+      <c s="1" r="XH1" t="s">
         <v>631</v>
       </c>
-      <c r="XI1" s="1" t="s">
+      <c s="1" r="XI1" t="s">
         <v>632</v>
       </c>
-      <c r="XJ1" s="1" t="s">
+      <c s="1" r="XJ1" t="s">
         <v>633</v>
       </c>
-      <c r="XK1" s="1" t="s">
+      <c s="1" r="XK1" t="s">
         <v>634</v>
       </c>
-      <c r="XL1" s="1" t="s">
+      <c s="1" r="XL1" t="s">
         <v>635</v>
       </c>
-      <c r="XM1" s="1" t="s">
+      <c s="1" r="XM1" t="s">
         <v>636</v>
       </c>
-      <c r="XN1" s="1" t="s">
+      <c s="1" r="XN1" t="s">
         <v>637</v>
       </c>
-      <c r="XO1" s="1" t="s">
+      <c s="1" r="XO1" t="s">
         <v>638</v>
       </c>
-      <c r="XP1" s="1" t="s">
+      <c s="1" r="XP1" t="s">
         <v>639</v>
       </c>
-      <c r="XQ1" s="1" t="s">
+      <c s="1" r="XQ1" t="s">
         <v>640</v>
       </c>
-      <c r="XR1" s="1" t="s">
+      <c s="1" r="XR1" t="s">
         <v>641</v>
       </c>
-      <c r="XS1" s="1" t="s">
+      <c s="1" r="XS1" t="s">
         <v>642</v>
       </c>
-      <c r="XT1" s="1" t="s">
+      <c s="1" r="XT1" t="s">
         <v>643</v>
       </c>
-      <c r="XU1" s="1" t="s">
+      <c s="1" r="XU1" t="s">
         <v>644</v>
       </c>
-      <c r="XV1" s="1" t="s">
+      <c s="1" r="XV1" t="s">
         <v>645</v>
       </c>
-      <c r="XW1" s="1" t="s">
+      <c s="1" r="XW1" t="s">
         <v>646</v>
       </c>
-      <c r="XX1" s="1" t="s">
+      <c s="1" r="XX1" t="s">
         <v>647</v>
       </c>
-      <c r="XY1" s="1" t="s">
+      <c s="1" r="XY1" t="s">
         <v>648</v>
       </c>
-      <c r="XZ1" s="1" t="s">
+      <c s="1" r="XZ1" t="s">
         <v>649</v>
       </c>
-      <c r="YA1" s="1" t="s">
+      <c s="1" r="YA1" t="s">
         <v>650</v>
       </c>
-      <c r="YB1" s="1" t="s">
+      <c s="1" r="YB1" t="s">
         <v>651</v>
       </c>
-      <c r="YC1" s="1" t="s">
+      <c s="1" r="YC1" t="s">
         <v>652</v>
       </c>
-      <c r="YD1" s="1" t="s">
+      <c s="1" r="YD1" t="s">
         <v>653</v>
       </c>
-      <c r="YE1" s="1" t="s">
+      <c s="1" r="YE1" t="s">
         <v>654</v>
       </c>
-      <c r="YF1" s="1" t="s">
+      <c s="1" r="YF1" t="s">
         <v>655</v>
       </c>
-      <c r="YG1" s="1" t="s">
+      <c s="1" r="YG1" t="s">
         <v>656</v>
       </c>
-      <c r="YH1" s="1" t="s">
+      <c s="1" r="YH1" t="s">
         <v>657</v>
       </c>
-      <c r="YI1" s="1" t="s">
+      <c s="1" r="YI1" t="s">
         <v>658</v>
       </c>
-      <c r="YJ1" s="1" t="s">
+      <c s="1" r="YJ1" t="s">
         <v>659</v>
       </c>
-      <c r="YK1" s="1" t="s">
+      <c s="1" r="YK1" t="s">
         <v>660</v>
       </c>
-      <c r="YL1" s="1" t="s">
+      <c s="1" r="YL1" t="s">
         <v>661</v>
       </c>
-      <c r="YM1" s="1" t="s">
+      <c s="1" r="YM1" t="s">
         <v>662</v>
       </c>
-      <c r="YN1" s="1" t="s">
+      <c s="1" r="YN1" t="s">
         <v>663</v>
       </c>
-      <c r="YO1" s="1" t="s">
+      <c s="1" r="YO1" t="s">
         <v>664</v>
       </c>
-      <c r="YP1" s="1" t="s">
+      <c s="1" r="YP1" t="s">
         <v>665</v>
       </c>
-      <c r="YQ1" s="1" t="s">
+      <c s="1" r="YQ1" t="s">
         <v>666</v>
       </c>
-      <c r="YR1" s="1" t="s">
+      <c s="1" r="YR1" t="s">
         <v>667</v>
       </c>
-      <c r="YS1" s="1" t="s">
+      <c s="1" r="YS1" t="s">
         <v>668</v>
       </c>
-      <c r="YT1" s="1" t="s">
+      <c s="1" r="YT1" t="s">
         <v>669</v>
       </c>
-      <c r="YU1" s="1" t="s">
+      <c s="1" r="YU1" t="s">
         <v>670</v>
       </c>
-      <c r="YV1" s="1" t="s">
+      <c s="1" r="YV1" t="s">
         <v>671</v>
       </c>
-      <c r="YW1" s="1" t="s">
+      <c s="1" r="YW1" t="s">
         <v>672</v>
       </c>
-      <c r="YX1" s="1" t="s">
+      <c s="1" r="YX1" t="s">
         <v>673</v>
       </c>
-      <c r="YY1" s="1" t="s">
+      <c s="1" r="YY1" t="s">
         <v>674</v>
       </c>
-      <c r="YZ1" s="1" t="s">
+      <c s="1" r="YZ1" t="s">
         <v>675</v>
       </c>
-      <c r="ZA1" s="1" t="s">
+      <c s="1" r="ZA1" t="s">
         <v>676</v>
       </c>
-      <c r="ZB1" s="1" t="s">
+      <c s="1" r="ZB1" t="s">
         <v>677</v>
       </c>
-      <c r="ZC1" s="1" t="s">
+      <c s="1" r="ZC1" t="s">
         <v>678</v>
       </c>
-      <c r="ZD1" s="1" t="s">
+      <c s="1" r="ZD1" t="s">
         <v>679</v>
       </c>
-      <c r="ZE1" s="1" t="s">
+      <c s="1" r="ZE1" t="s">
         <v>680</v>
       </c>
-      <c r="ZF1" s="1" t="s">
+      <c s="1" r="ZF1" t="s">
         <v>681</v>
       </c>
-      <c r="ZG1" s="1" t="s">
+      <c s="1" r="ZG1" t="s">
         <v>682</v>
       </c>
-      <c r="ZH1" s="1" t="s">
+      <c s="1" r="ZH1" t="s">
         <v>683</v>
       </c>
-      <c r="ZI1" s="1" t="s">
+      <c s="1" r="ZI1" t="s">
         <v>684</v>
       </c>
-      <c r="ZJ1" s="1" t="s">
+      <c s="1" r="ZJ1" t="s">
         <v>685</v>
       </c>
-      <c r="ZK1" s="1" t="s">
+      <c s="1" r="ZK1" t="s">
         <v>686</v>
       </c>
-      <c r="ZL1" s="1" t="s">
+      <c s="1" r="ZL1" t="s">
         <v>687</v>
       </c>
-      <c r="ZM1" s="1" t="s">
+      <c s="1" r="ZM1" t="s">
         <v>688</v>
       </c>
-      <c r="ZN1" s="1" t="s">
+      <c s="1" r="ZN1" t="s">
         <v>689</v>
       </c>
-      <c r="ZO1" s="1" t="s">
+      <c s="1" r="ZO1" t="s">
         <v>690</v>
       </c>
-      <c r="ZP1" s="1" t="s">
+      <c s="1" r="ZP1" t="s">
         <v>691</v>
       </c>
-      <c r="ZQ1" s="1" t="s">
+      <c s="1" r="ZQ1" t="s">
         <v>692</v>
       </c>
-      <c r="ZR1" s="1" t="s">
+      <c s="1" r="ZR1" t="s">
         <v>693</v>
       </c>
-      <c r="ZS1" s="1" t="s">
+      <c s="1" r="ZS1" t="s">
         <v>694</v>
       </c>
-      <c r="ZT1" s="1" t="s">
+      <c s="1" r="ZT1" t="s">
         <v>695</v>
       </c>
-      <c r="ZU1" s="1" t="s">
+      <c s="1" r="ZU1" t="s">
         <v>696</v>
       </c>
-      <c r="ZV1" s="1" t="s">
+      <c s="1" r="ZV1" t="s">
         <v>697</v>
       </c>
-      <c r="ZW1" s="1" t="s">
+      <c s="1" r="ZW1" t="s">
         <v>698</v>
       </c>
-      <c r="ZX1" s="1" t="s">
+      <c s="1" r="ZX1" t="s">
         <v>699</v>
       </c>
-      <c r="ZY1" s="1" t="s">
+      <c s="1" r="ZY1" t="s">
         <v>700</v>
       </c>
-      <c r="ZZ1" s="1" t="s">
+      <c s="1" r="ZZ1" t="s">
         <v>701</v>
       </c>
-      <c r="AAA1" s="1" t="s">
+      <c s="1" r="AAA1" t="s">
         <v>702</v>
       </c>
-      <c r="AAB1" s="1" t="s">
+      <c s="1" r="AAB1" t="s">
         <v>703</v>
       </c>
-      <c r="AAC1" s="1" t="s">
+      <c s="1" r="AAC1" t="s">
         <v>704</v>
       </c>
-      <c r="AAD1" s="1" t="s">
+      <c s="1" r="AAD1" t="s">
         <v>705</v>
       </c>
-      <c r="AAE1" s="1" t="s">
+      <c s="1" r="AAE1" t="s">
         <v>706</v>
       </c>
-      <c r="AAF1" s="1" t="s">
+      <c s="1" r="AAF1" t="s">
         <v>707</v>
       </c>
-      <c r="AAG1" s="1" t="s">
+      <c s="1" r="AAG1" t="s">
         <v>708</v>
       </c>
-      <c r="AAH1" s="1" t="s">
+      <c s="1" r="AAH1" t="s">
         <v>709</v>
       </c>
-      <c r="AAI1" s="1" t="s">
+      <c s="1" r="AAI1" t="s">
         <v>710</v>
       </c>
-      <c r="AAJ1" s="1" t="s">
+      <c s="1" r="AAJ1" t="s">
         <v>711</v>
       </c>
-      <c r="AAK1" s="1" t="s">
+      <c s="1" r="AAK1" t="s">
         <v>712</v>
       </c>
-      <c r="AAL1" s="1" t="s">
+      <c s="1" r="AAL1" t="s">
         <v>713</v>
       </c>
-      <c r="AAM1" s="1" t="s">
+      <c s="1" r="AAM1" t="s">
         <v>714</v>
       </c>
-      <c r="AAN1" s="1" t="s">
+      <c s="1" r="AAN1" t="s">
         <v>715</v>
       </c>
-      <c r="AAO1" s="1" t="s">
+      <c s="1" r="AAO1" t="s">
         <v>716</v>
       </c>
-      <c r="AAP1" s="1" t="s">
+      <c s="1" r="AAP1" t="s">
         <v>717</v>
       </c>
-      <c r="AAQ1" s="1" t="s">
+      <c s="1" r="AAQ1" t="s">
         <v>718</v>
       </c>
-      <c r="AAR1" s="1" t="s">
+      <c s="1" r="AAR1" t="s">
         <v>719</v>
       </c>
-      <c r="AAS1" s="1" t="s">
+      <c s="1" r="AAS1" t="s">
         <v>720</v>
       </c>
-      <c r="AAT1" s="1" t="s">
+      <c s="1" r="AAT1" t="s">
         <v>721</v>
       </c>
-      <c r="AAU1" s="1" t="s">
+      <c s="1" r="AAU1" t="s">
         <v>722</v>
       </c>
-      <c r="AAV1" s="1" t="s">
+      <c s="1" r="AAV1" t="s">
         <v>723</v>
       </c>
-      <c r="AAW1" s="1" t="s">
+      <c s="1" r="AAW1" t="s">
         <v>724</v>
       </c>
-      <c r="AAX1" s="1" t="s">
+      <c s="1" r="AAX1" t="s">
         <v>725</v>
       </c>
-      <c r="AAY1" s="1" t="s">
+      <c s="1" r="AAY1" t="s">
         <v>726</v>
       </c>
-      <c r="AAZ1" s="1" t="s">
+      <c s="1" r="AAZ1" t="s">
         <v>727</v>
       </c>
-      <c r="ABA1" s="1" t="s">
+      <c s="1" r="ABA1" t="s">
         <v>728</v>
       </c>
-      <c r="ABB1" s="1" t="s">
+      <c s="1" r="ABB1" t="s">
         <v>729</v>
       </c>
-      <c r="ABC1" s="1" t="s">
+      <c s="1" r="ABC1" t="s">
         <v>730</v>
       </c>
-      <c r="ABD1" s="1" t="s">
+      <c s="1" r="ABD1" t="s">
         <v>731</v>
       </c>
-      <c r="ABE1" s="1" t="s">
+      <c s="1" r="ABE1" t="s">
         <v>732</v>
       </c>
-      <c r="ABF1" s="1" t="s">
+      <c s="1" r="ABF1" t="s">
         <v>733</v>
       </c>
-      <c r="ABG1" s="1" t="s">
+      <c s="1" r="ABG1" t="s">
         <v>734</v>
       </c>
-      <c r="ABH1" s="1" t="s">
+      <c s="1" r="ABH1" t="s">
         <v>735</v>
       </c>
-      <c r="ABI1" s="1" t="s">
+      <c s="1" r="ABI1" t="s">
         <v>736</v>
       </c>
-      <c r="ABJ1" s="1" t="s">
+      <c s="1" r="ABJ1" t="s">
         <v>737</v>
       </c>
-      <c r="ABK1" s="1" t="s">
+      <c s="1" r="ABK1" t="s">
         <v>738</v>
       </c>
-      <c r="ABL1" s="1" t="s">
+      <c s="1" r="ABL1" t="s">
         <v>739</v>
       </c>
-      <c r="ABM1" s="1" t="s">
+      <c s="1" r="ABM1" t="s">
         <v>740</v>
       </c>
-      <c r="ABN1" s="1" t="s">
+      <c s="1" r="ABN1" t="s">
         <v>741</v>
       </c>
-      <c r="ABO1" s="1" t="s">
+      <c s="1" r="ABO1" t="s">
         <v>742</v>
       </c>
-      <c r="ABP1" s="1" t="s">
+      <c s="1" r="ABP1" t="s">
         <v>743</v>
       </c>
-      <c r="ABQ1" s="1" t="s">
+      <c s="1" r="ABQ1" t="s">
         <v>744</v>
       </c>
-      <c r="ABR1" s="1" t="s">
+      <c s="1" r="ABR1" t="s">
         <v>745</v>
       </c>
-      <c r="ABS1" s="1" t="s">
+      <c s="1" r="ABS1" t="s">
         <v>746</v>
       </c>
-      <c r="ABT1" s="1" t="s">
+      <c s="1" r="ABT1" t="s">
         <v>747</v>
       </c>
-      <c r="ABU1" s="1" t="s">
+      <c s="1" r="ABU1" t="s">
         <v>748</v>
       </c>
-      <c r="ABV1" s="1" t="s">
+      <c s="1" r="ABV1" t="s">
         <v>749</v>
       </c>
-      <c r="ABW1" s="1" t="s">
+      <c s="1" r="ABW1" t="s">
         <v>750</v>
       </c>
-      <c r="ABX1" s="1" t="s">
+      <c s="1" r="ABX1" t="s">
         <v>751</v>
       </c>
-      <c r="ABY1" s="1" t="s">
+      <c s="1" r="ABY1" t="s">
         <v>752</v>
       </c>
-      <c r="ABZ1" s="1" t="s">
+      <c s="1" r="ABZ1" t="s">
         <v>753</v>
       </c>
-      <c r="ACA1" s="1" t="s">
+      <c s="1" r="ACA1" t="s">
         <v>754</v>
       </c>
-      <c r="ACB1" s="1" t="s">
+      <c s="1" r="ACB1" t="s">
         <v>755</v>
       </c>
-      <c r="ACC1" s="1" t="s">
+      <c s="1" r="ACC1" t="s">
         <v>756</v>
       </c>
-      <c r="ACD1" s="1" t="s">
+      <c s="1" r="ACD1" t="s">
         <v>757</v>
       </c>
-      <c r="ACE1" s="1" t="s">
+      <c s="1" r="ACE1" t="s">
         <v>758</v>
       </c>
-      <c r="ACF1" s="1" t="s">
+      <c s="1" r="ACF1" t="s">
         <v>759</v>
       </c>
-      <c r="ACG1" s="1" t="s">
+      <c s="1" r="ACG1" t="s">
         <v>760</v>
       </c>
-      <c r="ACH1" s="1" t="s">
+      <c s="1" r="ACH1" t="s">
         <v>761</v>
       </c>
-      <c r="ACI1" s="1" t="s">
+      <c s="1" r="ACI1" t="s">
         <v>762</v>
       </c>
-      <c r="ACJ1" s="1" t="s">
+      <c s="1" r="ACJ1" t="s">
         <v>763</v>
       </c>
-      <c r="ACK1" s="1" t="s">
+      <c s="1" r="ACK1" t="s">
         <v>764</v>
       </c>
-      <c r="ACL1" s="1" t="s">
+      <c s="1" r="ACL1" t="s">
         <v>765</v>
       </c>
-      <c r="ACM1" s="1" t="s">
+      <c s="1" r="ACM1" t="s">
         <v>766</v>
       </c>
-      <c r="ACN1" s="1" t="s">
+      <c s="1" r="ACN1" t="s">
         <v>767</v>
       </c>
-      <c r="ACO1" s="1" t="s">
+      <c s="1" r="ACO1" t="s">
         <v>768</v>
       </c>
-      <c r="ACP1" s="1" t="s">
+      <c s="1" r="ACP1" t="s">
         <v>769</v>
       </c>
-      <c r="ACQ1" s="1" t="s">
+      <c s="1" r="ACQ1" t="s">
         <v>770</v>
       </c>
-      <c r="ACR1" s="1" t="s">
+      <c s="1" r="ACR1" t="s">
         <v>771</v>
       </c>
-      <c r="ACS1" s="1" t="s">
+      <c s="1" r="ACS1" t="s">
         <v>772</v>
       </c>
-      <c r="ACT1" s="1" t="s">
+      <c s="1" r="ACT1" t="s">
         <v>773</v>
       </c>
-      <c r="ACU1" s="1" t="s">
+      <c s="1" r="ACU1" t="s">
         <v>774</v>
       </c>
-      <c r="ACV1" s="1" t="s">
+      <c s="1" r="ACV1" t="s">
         <v>775</v>
       </c>
-      <c r="ACW1" s="1" t="s">
+      <c s="1" r="ACW1" t="s">
         <v>776</v>
       </c>
-      <c r="ACX1" s="1" t="s">
+      <c s="1" r="ACX1" t="s">
         <v>777</v>
       </c>
-      <c r="ACY1" s="1" t="s">
+      <c s="1" r="ACY1" t="s">
         <v>778</v>
       </c>
-      <c r="ACZ1" s="1" t="s">
+      <c s="1" r="ACZ1" t="s">
         <v>779</v>
       </c>
-      <c r="ADA1" s="1" t="s">
+      <c s="1" r="ADA1" t="s">
         <v>780</v>
       </c>
-      <c r="ADB1" s="1" t="s">
+      <c s="1" r="ADB1" t="s">
         <v>781</v>
       </c>
-      <c r="ADC1" s="1" t="s">
+      <c s="1" r="ADC1" t="s">
         <v>782</v>
       </c>
-      <c r="ADD1" s="1" t="s">
+      <c s="1" r="ADD1" t="s">
         <v>783</v>
       </c>
-      <c r="ADE1" s="1" t="s">
+      <c s="1" r="ADE1" t="s">
         <v>784</v>
       </c>
-      <c r="ADF1" s="1" t="s">
+      <c s="1" r="ADF1" t="s">
         <v>785</v>
       </c>
-      <c r="ADG1" s="1" t="s">
+      <c s="1" r="ADG1" t="s">
         <v>786</v>
       </c>
-      <c r="ADH1" s="1" t="s">
+      <c s="1" r="ADH1" t="s">
         <v>787</v>
       </c>
-      <c r="ADI1" s="1" t="s">
+      <c s="1" r="ADI1" t="s">
         <v>788</v>
       </c>
-      <c r="ADJ1" s="1" t="s">
+      <c s="1" r="ADJ1" t="s">
         <v>789</v>
       </c>
-      <c r="ADK1" s="1" t="s">
+      <c s="1" r="ADK1" t="s">
         <v>790</v>
       </c>
-      <c r="ADL1" s="1" t="s">
+      <c s="1" r="ADL1" t="s">
         <v>791</v>
       </c>
-      <c r="ADM1" s="1" t="s">
+      <c s="1" r="ADM1" t="s">
         <v>792</v>
       </c>
-      <c r="ADN1" s="1" t="s">
+      <c s="1" r="ADN1" t="s">
         <v>793</v>
       </c>
-      <c r="ADO1" s="1" t="s">
+      <c s="1" r="ADO1" t="s">
         <v>794</v>
       </c>
-      <c r="ADP1" s="1" t="s">
+      <c s="1" r="ADP1" t="s">
         <v>795</v>
       </c>
-      <c r="ADQ1" s="1" t="s">
+      <c s="1" r="ADQ1" t="s">
         <v>796</v>
       </c>
-      <c r="ADR1" s="1" t="s">
+      <c s="1" r="ADR1" t="s">
         <v>797</v>
       </c>
-      <c r="ADS1" s="1" t="s">
+      <c s="1" r="ADS1" t="s">
         <v>798</v>
       </c>
-      <c r="ADT1" s="1" t="s">
+      <c s="1" r="ADT1" t="s">
         <v>799</v>
       </c>
-      <c r="ADU1" s="1" t="s">
+      <c s="1" r="ADU1" t="s">
         <v>800</v>
       </c>
-      <c r="ADV1" s="1" t="s">
+      <c s="1" r="ADV1" t="s">
         <v>801</v>
       </c>
-      <c r="ADW1" s="1" t="s">
+      <c s="1" r="ADW1" t="s">
         <v>802</v>
       </c>
-      <c r="ADX1" s="1" t="s">
+      <c s="1" r="ADX1" t="s">
         <v>803</v>
       </c>
-      <c r="ADY1" s="1" t="s">
+      <c s="1" r="ADY1" t="s">
         <v>804</v>
       </c>
-      <c r="ADZ1" s="1" t="s">
+      <c s="1" r="ADZ1" t="s">
         <v>805</v>
       </c>
-      <c r="AEA1" s="1" t="s">
+      <c s="1" r="AEA1" t="s">
         <v>806</v>
       </c>
-      <c r="AEB1" s="1" t="s">
+      <c s="1" r="AEB1" t="s">
         <v>807</v>
       </c>
-      <c r="AEC1" s="1" t="s">
+      <c s="1" r="AEC1" t="s">
         <v>808</v>
       </c>
-      <c r="AED1" s="1" t="s">
+      <c s="1" r="AED1" t="s">
         <v>809</v>
       </c>
-      <c r="AEE1" s="1" t="s">
+      <c s="1" r="AEE1" t="s">
         <v>810</v>
       </c>
-      <c r="AEF1" s="1" t="s">
+      <c s="1" r="AEF1" t="s">
         <v>811</v>
       </c>
-      <c r="AEG1" s="1" t="s">
+      <c s="1" r="AEG1" t="s">
         <v>812</v>
       </c>
-      <c r="AEH1" s="1" t="s">
+      <c s="1" r="AEH1" t="s">
         <v>813</v>
       </c>
-      <c r="AEI1" s="1" t="s">
+      <c s="1" r="AEI1" t="s">
         <v>814</v>
       </c>
-      <c r="AEJ1" s="1" t="s">
+      <c s="1" r="AEJ1" t="s">
         <v>815</v>
       </c>
-      <c r="AEK1" s="1" t="s">
+      <c s="1" r="AEK1" t="s">
         <v>816</v>
       </c>
-      <c r="AEL1" s="1" t="s">
+      <c s="1" r="AEL1" t="s">
         <v>817</v>
       </c>
-      <c r="AEM1" s="1" t="s">
+      <c s="1" r="AEM1" t="s">
         <v>818</v>
       </c>
-      <c r="AEN1" s="1" t="s">
+      <c s="1" r="AEN1" t="s">
         <v>819</v>
       </c>
-      <c r="AEO1" s="1" t="s">
+      <c s="1" r="AEO1" t="s">
         <v>820</v>
       </c>
-      <c r="AEP1" s="1" t="s">
+      <c s="1" r="AEP1" t="s">
         <v>821</v>
       </c>
-      <c r="AEQ1" s="1" t="s">
+      <c s="1" r="AEQ1" t="s">
         <v>822</v>
       </c>
-      <c r="AER1" s="1" t="s">
+      <c s="1" r="AER1" t="s">
         <v>823</v>
       </c>
-      <c r="AES1" s="1" t="s">
+      <c s="1" r="AES1" t="s">
         <v>824</v>
       </c>
-      <c r="AET1" s="1" t="s">
+      <c s="1" r="AET1" t="s">
         <v>825</v>
       </c>
-      <c r="AEU1" s="1" t="s">
+      <c s="1" r="AEU1" t="s">
         <v>826</v>
       </c>
-      <c r="AEV1" s="1" t="s">
+      <c s="1" r="AEV1" t="s">
         <v>827</v>
       </c>
-      <c r="AEW1" s="1" t="s">
+      <c s="1" r="AEW1" t="s">
         <v>828</v>
       </c>
-      <c r="AEX1" s="1" t="s">
+      <c s="1" r="AEX1" t="s">
         <v>829</v>
       </c>
-      <c r="AEY1" s="1" t="s">
+      <c s="1" r="AEY1" t="s">
         <v>830</v>
       </c>
-      <c r="AEZ1" s="1" t="s">
+      <c s="1" r="AEZ1" t="s">
         <v>831</v>
       </c>
-      <c r="AFA1" s="1" t="s">
+      <c s="1" r="AFA1" t="s">
         <v>832</v>
       </c>
-      <c r="AFB1" s="1" t="s">
+      <c s="1" r="AFB1" t="s">
         <v>833</v>
       </c>
-      <c r="AFC1" s="1" t="s">
+      <c s="1" r="AFC1" t="s">
         <v>834</v>
       </c>
-      <c r="AFD1" s="1" t="s">
+      <c s="1" r="AFD1" t="s">
         <v>835</v>
       </c>
-      <c r="AFE1" s="1" t="s">
+      <c s="1" r="AFE1" t="s">
         <v>836</v>
       </c>
-      <c r="AFF1" s="1" t="s">
+      <c s="1" r="AFF1" t="s">
         <v>837</v>
       </c>
-      <c r="AFG1" s="1" t="s">
+      <c s="1" r="AFG1" t="s">
         <v>838</v>
       </c>
-      <c r="AFH1" s="1" t="s">
+      <c s="1" r="AFH1" t="s">
         <v>839</v>
       </c>
-      <c r="AFI1" s="1" t="s">
+      <c s="1" r="AFI1" t="s">
         <v>840</v>
       </c>
-      <c r="AFJ1" s="1" t="s">
+      <c s="1" r="AFJ1" t="s">
         <v>841</v>
       </c>
-      <c r="AFK1" s="1" t="s">
+      <c s="1" r="AFK1" t="s">
         <v>842</v>
       </c>
-      <c r="AFL1" s="1" t="s">
+      <c s="1" r="AFL1" t="s">
         <v>843</v>
       </c>
-      <c r="AFM1" s="1" t="s">
+      <c s="1" r="AFM1" t="s">
         <v>844</v>
       </c>
-      <c r="AFN1" s="1" t="s">
+      <c s="1" r="AFN1" t="s">
         <v>845</v>
       </c>
-      <c r="AFO1" s="1" t="s">
+      <c s="1" r="AFO1" t="s">
         <v>846</v>
       </c>
     </row>
@@ -42730,6 +42746,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>